--- a/database/steel_data_0310_global.xlsx
+++ b/database/steel_data_0310_global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE84796-13C4-E74C-8524-CDA07808BC96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77EFD9-03A3-C646-889A-82DE764C4190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="9" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="4" activeTab="16" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -33,6 +33,7 @@
     <sheet name="feedstock_intensity" sheetId="17" r:id="rId18"/>
     <sheet name="feedstock_emission" sheetId="12" r:id="rId19"/>
     <sheet name="feedstock_introduction" sheetId="27" r:id="rId20"/>
+    <sheet name="Sheet1" sheetId="28" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1046,7 +1047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
@@ -1535,7 +1536,7 @@
   <dimension ref="A1:AA15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N28" sqref="N28"/>
+      <selection activeCell="G19" sqref="G19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2511,82 +2512,82 @@
         <v>55</v>
       </c>
       <c r="B12" s="16">
-        <v>90716.67</v>
+        <v>35000</v>
       </c>
       <c r="C12" s="16">
-        <v>89675</v>
+        <v>34230</v>
       </c>
       <c r="D12" s="16">
-        <v>87975</v>
+        <v>33460</v>
       </c>
       <c r="E12" s="16">
-        <v>89741.67</v>
+        <v>32690</v>
       </c>
       <c r="F12" s="16">
-        <v>89800</v>
+        <v>31920</v>
       </c>
       <c r="G12" s="16">
-        <v>86400</v>
+        <v>31150</v>
       </c>
       <c r="H12" s="16">
-        <v>83208.33</v>
+        <v>30356.67</v>
       </c>
       <c r="I12" s="16">
-        <v>80783.33</v>
+        <v>29563.33</v>
       </c>
       <c r="J12" s="16">
-        <v>78908.33</v>
+        <v>28770</v>
       </c>
       <c r="K12" s="16">
-        <v>78433.33</v>
+        <v>27976.67</v>
       </c>
       <c r="L12" s="16">
-        <v>77441.67</v>
+        <v>27183.33</v>
       </c>
       <c r="M12" s="16">
-        <v>76391.67</v>
+        <v>26413.33</v>
       </c>
       <c r="N12" s="16">
-        <v>71533.33</v>
+        <v>25643.33</v>
       </c>
       <c r="O12" s="16">
-        <v>68441.67</v>
+        <v>24873.33</v>
       </c>
       <c r="P12" s="16">
-        <v>65491.67</v>
+        <v>24103.33</v>
       </c>
       <c r="Q12" s="16">
-        <v>62683.33</v>
+        <v>23333.33</v>
       </c>
       <c r="R12" s="16">
-        <v>60000</v>
+        <v>22563.33</v>
       </c>
       <c r="S12" s="16">
-        <v>57441.67</v>
+        <v>21793.33</v>
       </c>
       <c r="T12" s="16">
-        <v>55000</v>
+        <v>21023.33</v>
       </c>
       <c r="U12" s="16">
-        <v>52666.67</v>
+        <v>20253.330000000002</v>
       </c>
       <c r="V12" s="16">
-        <v>50441.67</v>
+        <v>19483.330000000002</v>
       </c>
       <c r="W12" s="16">
-        <v>48316.67</v>
+        <v>19086.669999999998</v>
       </c>
       <c r="X12" s="16">
-        <v>46275</v>
+        <v>18690</v>
       </c>
       <c r="Y12" s="16">
-        <v>44325</v>
+        <v>18293.330000000002</v>
       </c>
       <c r="Z12" s="16">
-        <v>42458.33</v>
+        <v>17896.669999999998</v>
       </c>
       <c r="AA12" s="16">
-        <v>40675</v>
+        <v>17500</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
@@ -2810,82 +2811,82 @@
         <v>74</v>
       </c>
       <c r="B15" s="16">
-        <v>90716.67</v>
+        <v>35000</v>
       </c>
       <c r="C15" s="16">
-        <v>89675</v>
+        <v>34230</v>
       </c>
       <c r="D15" s="16">
-        <v>87975</v>
+        <v>33460</v>
       </c>
       <c r="E15" s="16">
-        <v>89741.67</v>
+        <v>32690</v>
       </c>
       <c r="F15" s="16">
-        <v>89800</v>
+        <v>31920</v>
       </c>
       <c r="G15" s="16">
-        <v>86400</v>
+        <v>31150</v>
       </c>
       <c r="H15" s="16">
-        <v>83208.33</v>
+        <v>30356.67</v>
       </c>
       <c r="I15" s="16">
-        <v>80783.33</v>
+        <v>29563.33</v>
       </c>
       <c r="J15" s="16">
-        <v>78908.33</v>
+        <v>28770</v>
       </c>
       <c r="K15" s="16">
-        <v>78433.33</v>
+        <v>27976.67</v>
       </c>
       <c r="L15" s="16">
-        <v>77441.67</v>
+        <v>27183.33</v>
       </c>
       <c r="M15" s="16">
-        <v>76391.67</v>
+        <v>26413.33</v>
       </c>
       <c r="N15" s="16">
-        <v>71533.33</v>
+        <v>25643.33</v>
       </c>
       <c r="O15" s="16">
-        <v>68441.67</v>
+        <v>24873.33</v>
       </c>
       <c r="P15" s="16">
-        <v>65491.67</v>
+        <v>24103.33</v>
       </c>
       <c r="Q15" s="16">
-        <v>62683.33</v>
+        <v>23333.33</v>
       </c>
       <c r="R15" s="16">
-        <v>60000</v>
+        <v>22563.33</v>
       </c>
       <c r="S15" s="16">
-        <v>57441.67</v>
+        <v>21793.33</v>
       </c>
       <c r="T15" s="16">
-        <v>55000</v>
+        <v>21023.33</v>
       </c>
       <c r="U15" s="16">
-        <v>52666.67</v>
+        <v>20253.330000000002</v>
       </c>
       <c r="V15" s="16">
-        <v>50441.67</v>
+        <v>19483.330000000002</v>
       </c>
       <c r="W15" s="16">
-        <v>48316.67</v>
+        <v>19086.669999999998</v>
       </c>
       <c r="X15" s="16">
-        <v>46275</v>
+        <v>18690</v>
       </c>
       <c r="Y15" s="16">
-        <v>44325</v>
+        <v>18293.330000000002</v>
       </c>
       <c r="Z15" s="16">
-        <v>42458.33</v>
+        <v>17896.669999999998</v>
       </c>
       <c r="AA15" s="16">
-        <v>40675</v>
+        <v>17500</v>
       </c>
     </row>
   </sheetData>
@@ -7052,8 +7053,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
-    <sheetView zoomScale="99" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9633,6 +9634,18 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB1FD73-3D35-0E4B-A5F5-445568AA1FC9}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10174,7 +10187,7 @@
   <dimension ref="A1:AA31"/>
   <sheetViews>
     <sheetView zoomScale="120" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/database/steel_data_0310_global.xlsx
+++ b/database/steel_data_0310_global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77EFD9-03A3-C646-889A-82DE764C4190}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA31D7-92B1-B64E-8359-C43184CAA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="4" activeTab="16" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="4" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -25,11 +25,11 @@
     <sheet name="emission" sheetId="23" r:id="rId10"/>
     <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId11"/>
     <sheet name="fuel_cost" sheetId="8" r:id="rId12"/>
-    <sheet name="fuel_intensity" sheetId="16" r:id="rId13"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId14"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId15"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId16"/>
-    <sheet name="feedstock_cost" sheetId="11" r:id="rId17"/>
+    <sheet name="feedstock_cost" sheetId="11" r:id="rId13"/>
+    <sheet name="fuel_intensity" sheetId="16" r:id="rId14"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId15"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId16"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId17"/>
     <sheet name="feedstock_intensity" sheetId="17" r:id="rId18"/>
     <sheet name="feedstock_emission" sheetId="12" r:id="rId19"/>
     <sheet name="feedstock_introduction" sheetId="27" r:id="rId20"/>
@@ -582,6 +582,853 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>feedstock_cost!$A$2:$A$9</c:f>
+              <c:strCache>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>Iron ore_BB</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Scrap_BB</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>HBI_BB</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Iron ore_BX</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Iron ore_H2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Scrap_H2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Scrap_EAF</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>HBI_EAF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>feedstock_cost!$B$2:$B$9</c:f>
+              <c:numCache>
+                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>138966</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>538408.9009146546</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>138966</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>138966</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>375000</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>538408.9009146546</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55CD-8C4B-BA19-AF614BF25F4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1771102623"/>
+        <c:axId val="704053967"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1771102623"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="704053967"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="704053967"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-KR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1771102623"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr sz="2000"/>
+      </a:pPr>
+      <a:endParaRPr lang="en-KR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>241172</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>90824</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>348930</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>93903</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C2BB0C-A94C-5A7E-481B-A652FC194CF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -1535,8 +2382,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2598,104 +3445,79 @@
         <v>32481</v>
       </c>
       <c r="C13" s="16">
-        <f>B13*1.05</f>
-        <v>34105.050000000003</v>
+        <v>32481</v>
       </c>
       <c r="D13" s="16">
-        <f t="shared" ref="D13:AA14" si="24">C13*1.05</f>
-        <v>35810.302500000005</v>
+        <v>32481</v>
       </c>
       <c r="E13" s="16">
-        <f t="shared" si="24"/>
-        <v>37600.817625000011</v>
+        <v>32481</v>
       </c>
       <c r="F13" s="16">
-        <f t="shared" si="24"/>
-        <v>39480.858506250013</v>
+        <v>32481</v>
       </c>
       <c r="G13" s="16">
-        <f t="shared" si="24"/>
-        <v>41454.901431562517</v>
+        <v>32481</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" si="24"/>
-        <v>43527.646503140648</v>
+        <v>32481</v>
       </c>
       <c r="I13" s="16">
-        <f t="shared" si="24"/>
-        <v>45704.028828297684</v>
+        <v>32481</v>
       </c>
       <c r="J13" s="16">
-        <f t="shared" si="24"/>
-        <v>47989.230269712571</v>
+        <v>32481</v>
       </c>
       <c r="K13" s="16">
-        <f t="shared" si="24"/>
-        <v>50388.691783198199</v>
+        <v>32481</v>
       </c>
       <c r="L13" s="16">
-        <f t="shared" si="24"/>
-        <v>52908.126372358114</v>
+        <v>32481</v>
       </c>
       <c r="M13" s="16">
-        <f t="shared" si="24"/>
-        <v>55553.532690976019</v>
+        <v>32481</v>
       </c>
       <c r="N13" s="16">
-        <f t="shared" si="24"/>
-        <v>58331.209325524826</v>
+        <v>32481</v>
       </c>
       <c r="O13" s="16">
-        <f t="shared" si="24"/>
-        <v>61247.769791801067</v>
+        <v>32481</v>
       </c>
       <c r="P13" s="16">
-        <f t="shared" si="24"/>
-        <v>64310.158281391123</v>
+        <v>32481</v>
       </c>
       <c r="Q13" s="16">
-        <f t="shared" si="24"/>
-        <v>67525.666195460683</v>
+        <v>32481</v>
       </c>
       <c r="R13" s="16">
-        <f t="shared" si="24"/>
-        <v>70901.949505233715</v>
+        <v>32481</v>
       </c>
       <c r="S13" s="16">
-        <f t="shared" si="24"/>
-        <v>74447.046980495405</v>
+        <v>32481</v>
       </c>
       <c r="T13" s="16">
-        <f t="shared" si="24"/>
-        <v>78169.39932952018</v>
+        <v>32481</v>
       </c>
       <c r="U13" s="16">
-        <f t="shared" si="24"/>
-        <v>82077.869295996192</v>
+        <v>32481</v>
       </c>
       <c r="V13" s="16">
-        <f t="shared" si="24"/>
-        <v>86181.762760796002</v>
+        <v>32481</v>
       </c>
       <c r="W13" s="16">
-        <f t="shared" si="24"/>
-        <v>90490.850898835808</v>
+        <v>32481</v>
       </c>
       <c r="X13" s="16">
-        <f t="shared" si="24"/>
-        <v>95015.393443777604</v>
+        <v>32481</v>
       </c>
       <c r="Y13" s="16">
-        <f t="shared" si="24"/>
-        <v>99766.163115966483</v>
+        <v>32481</v>
       </c>
       <c r="Z13" s="16">
-        <f t="shared" si="24"/>
-        <v>104754.47127176481</v>
+        <v>32481</v>
       </c>
       <c r="AA13" s="16">
-        <f t="shared" si="24"/>
-        <v>109992.19483535305</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -2706,104 +3528,79 @@
         <v>32481</v>
       </c>
       <c r="C14" s="16">
-        <f>B14*1.05</f>
-        <v>34105.050000000003</v>
+        <v>32481</v>
       </c>
       <c r="D14" s="16">
-        <f t="shared" si="24"/>
-        <v>35810.302500000005</v>
+        <v>32481</v>
       </c>
       <c r="E14" s="16">
-        <f t="shared" si="24"/>
-        <v>37600.817625000011</v>
+        <v>32481</v>
       </c>
       <c r="F14" s="16">
-        <f t="shared" si="24"/>
-        <v>39480.858506250013</v>
+        <v>32481</v>
       </c>
       <c r="G14" s="16">
-        <f t="shared" si="24"/>
-        <v>41454.901431562517</v>
+        <v>32481</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" si="24"/>
-        <v>43527.646503140648</v>
+        <v>32481</v>
       </c>
       <c r="I14" s="16">
-        <f t="shared" si="24"/>
-        <v>45704.028828297684</v>
+        <v>32481</v>
       </c>
       <c r="J14" s="16">
-        <f t="shared" si="24"/>
-        <v>47989.230269712571</v>
+        <v>32481</v>
       </c>
       <c r="K14" s="16">
-        <f t="shared" si="24"/>
-        <v>50388.691783198199</v>
+        <v>32481</v>
       </c>
       <c r="L14" s="16">
-        <f t="shared" si="24"/>
-        <v>52908.126372358114</v>
+        <v>32481</v>
       </c>
       <c r="M14" s="16">
-        <f t="shared" si="24"/>
-        <v>55553.532690976019</v>
+        <v>32481</v>
       </c>
       <c r="N14" s="16">
-        <f t="shared" si="24"/>
-        <v>58331.209325524826</v>
+        <v>32481</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="24"/>
-        <v>61247.769791801067</v>
+        <v>32481</v>
       </c>
       <c r="P14" s="16">
-        <f t="shared" si="24"/>
-        <v>64310.158281391123</v>
+        <v>32481</v>
       </c>
       <c r="Q14" s="16">
-        <f t="shared" si="24"/>
-        <v>67525.666195460683</v>
+        <v>32481</v>
       </c>
       <c r="R14" s="16">
-        <f t="shared" si="24"/>
-        <v>70901.949505233715</v>
+        <v>32481</v>
       </c>
       <c r="S14" s="16">
-        <f t="shared" si="24"/>
-        <v>74447.046980495405</v>
+        <v>32481</v>
       </c>
       <c r="T14" s="16">
-        <f t="shared" si="24"/>
-        <v>78169.39932952018</v>
+        <v>32481</v>
       </c>
       <c r="U14" s="16">
-        <f t="shared" si="24"/>
-        <v>82077.869295996192</v>
+        <v>32481</v>
       </c>
       <c r="V14" s="16">
-        <f t="shared" si="24"/>
-        <v>86181.762760796002</v>
+        <v>32481</v>
       </c>
       <c r="W14" s="16">
-        <f t="shared" si="24"/>
-        <v>90490.850898835808</v>
+        <v>32481</v>
       </c>
       <c r="X14" s="16">
-        <f t="shared" si="24"/>
-        <v>95015.393443777604</v>
+        <v>32481</v>
       </c>
       <c r="Y14" s="16">
-        <f t="shared" si="24"/>
-        <v>99766.163115966483</v>
+        <v>32481</v>
       </c>
       <c r="Z14" s="16">
-        <f t="shared" si="24"/>
-        <v>104754.47127176481</v>
+        <v>32481</v>
       </c>
       <c r="AA14" s="16">
-        <f t="shared" si="24"/>
-        <v>109992.19483535305</v>
+        <v>32481</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -2897,6 +3694,782 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
+  <dimension ref="A1:AA11"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="99" workbookViewId="0">
+      <selection activeCell="E16" sqref="E16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="C2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="D2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="E2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="F2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="G2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="H2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="I2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="J2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="K2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="L2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="M2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="N2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="O2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="P2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Q2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="R2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="S2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="T2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="U2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="V2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="W2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="X2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Y2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Z2" s="16">
+        <v>138966</v>
+      </c>
+      <c r="AA2" s="16">
+        <v>138966</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="C3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="D3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="E3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="F3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="G3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="H3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="I3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="J3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="K3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="L3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="M3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="N3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="O3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="P3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Q3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="R3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="S3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="T3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="U3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="V3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="W3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="X3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Y3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Z3" s="16">
+        <v>375000</v>
+      </c>
+      <c r="AA3" s="16">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="C4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="D4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="E4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="F4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="G4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="H4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="I4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="J4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="K4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="L4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="M4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="N4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="O4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="P4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="Q4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="R4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="S4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="T4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="U4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="V4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="W4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="X4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="Y4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="Z4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="AA4" s="16">
+        <v>538408.9009146546</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="C5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="D5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="E5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="F5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="G5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="H5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="I5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="J5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="K5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="L5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="M5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="N5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="O5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="P5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Q5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="R5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="S5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="T5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="U5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="V5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="W5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="X5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Y5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Z5" s="16">
+        <v>138966</v>
+      </c>
+      <c r="AA5" s="16">
+        <v>138966</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="C6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="D6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="E6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="F6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="G6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="H6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="I6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="J6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="K6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="L6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="M6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="N6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="O6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="P6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Q6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="R6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="S6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="T6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="U6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="V6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="W6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="X6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Y6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="Z6" s="16">
+        <v>138966</v>
+      </c>
+      <c r="AA6" s="16">
+        <v>138966</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="C7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="D7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="E7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="F7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="G7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="H7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="I7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="J7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="K7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="L7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="M7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="N7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="O7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="P7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Q7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="R7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="S7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="T7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="U7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="V7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="W7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="X7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Y7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Z7" s="16">
+        <v>375000</v>
+      </c>
+      <c r="AA7" s="16">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="C8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="D8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="E8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="F8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="G8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="H8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="I8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="J8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="K8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="L8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="M8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="N8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="O8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="P8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Q8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="R8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="S8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="T8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="U8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="V8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="W8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="X8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Y8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="Z8" s="16">
+        <v>375000</v>
+      </c>
+      <c r="AA8" s="16">
+        <v>375000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="C9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="D9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="E9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="F9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="G9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="H9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="I9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="J9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="K9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="L9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="M9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="N9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="O9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="P9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="Q9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="R9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="S9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="T9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="U9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="V9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="W9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="X9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="Y9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="Z9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+      <c r="AA9" s="16">
+        <v>538408.9009146546</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B10" s="21"/>
+    </row>
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B11" s="21"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
@@ -4165,7 +5738,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -5431,7 +7004,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
@@ -6614,7 +8187,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -7041,781 +8614,6 @@
       <c r="AA5">
         <v>1</v>
       </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
-  <dimension ref="A1:AA11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
-    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="C2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="D2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="E2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="F2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="G2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="H2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="I2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="J2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="K2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="L2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="M2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="N2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="O2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="P2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Q2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="R2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="S2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="T2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="U2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="V2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="W2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="X2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Y2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Z2" s="16">
-        <v>138966</v>
-      </c>
-      <c r="AA2" s="16">
-        <v>138966</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="C3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="D3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="E3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="F3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="G3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="H3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="I3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="J3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="K3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="L3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="M3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="N3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="O3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="P3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Q3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="R3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="S3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="T3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="U3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="V3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="W3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="X3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Y3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Z3" s="16">
-        <v>375000</v>
-      </c>
-      <c r="AA3" s="16">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="C4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="D4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="E4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="F4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="G4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="H4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="I4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="J4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="K4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="L4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="M4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="N4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="O4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="P4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="Q4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="R4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="S4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="T4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="U4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="V4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="W4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="X4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="Y4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="Z4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="AA4" s="16">
-        <v>538408.9009146546</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="C5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="D5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="E5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="F5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="G5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="H5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="I5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="J5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="K5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="L5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="M5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="N5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="O5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="P5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Q5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="R5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="S5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="T5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="U5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="V5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="W5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="X5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Y5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Z5" s="16">
-        <v>138966</v>
-      </c>
-      <c r="AA5" s="16">
-        <v>138966</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="C6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="D6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="E6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="F6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="G6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="H6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="I6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="J6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="K6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="L6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="M6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="N6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="O6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="P6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Q6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="R6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="S6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="T6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="U6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="V6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="W6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="X6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Y6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="Z6" s="16">
-        <v>138966</v>
-      </c>
-      <c r="AA6" s="16">
-        <v>138966</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="C7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="D7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="E7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="F7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="G7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="H7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="I7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="J7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="K7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="L7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="M7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="N7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="O7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="P7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Q7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="R7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="S7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="T7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="U7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="V7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="W7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="X7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Y7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Z7" s="16">
-        <v>375000</v>
-      </c>
-      <c r="AA7" s="16">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="C8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="D8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="E8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="F8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="G8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="H8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="I8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="J8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="K8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="L8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="M8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="N8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="O8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="P8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Q8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="R8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="S8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="T8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="U8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="V8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="W8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="X8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Y8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="Z8" s="16">
-        <v>375000</v>
-      </c>
-      <c r="AA8" s="16">
-        <v>375000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="C9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="D9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="E9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="F9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="G9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="H9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="I9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="J9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="K9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="L9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="M9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="N9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="O9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="P9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="Q9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="R9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="S9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="T9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="U9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="V9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="W9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="X9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="Y9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="Z9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-      <c r="AA9" s="16">
-        <v>538408.9009146546</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B10" s="21"/>
-    </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="B11" s="21"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/database/steel_data_0310_global.xlsx
+++ b/database/steel_data_0310_global.xlsx
@@ -8,32 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ADA31D7-92B1-B64E-8359-C43184CAA163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A1322-204E-4449-B2C8-E0C2AAC957CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" firstSheet="4" activeTab="11" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="3" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
     <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId2"/>
     <sheet name="fuel_introduction" sheetId="26" r:id="rId3"/>
     <sheet name="baseline" sheetId="7" r:id="rId4"/>
-    <sheet name="capex" sheetId="13" r:id="rId5"/>
-    <sheet name="opex" sheetId="14" r:id="rId6"/>
-    <sheet name="renewal" sheetId="15" r:id="rId7"/>
-    <sheet name="technology" sheetId="19" r:id="rId8"/>
-    <sheet name="carbonprice" sheetId="25" r:id="rId9"/>
-    <sheet name="emission" sheetId="23" r:id="rId10"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId11"/>
-    <sheet name="fuel_cost" sheetId="8" r:id="rId12"/>
-    <sheet name="feedstock_cost" sheetId="11" r:id="rId13"/>
-    <sheet name="fuel_intensity" sheetId="16" r:id="rId14"/>
-    <sheet name="fuel_emission" sheetId="10" r:id="rId15"/>
-    <sheet name="emission_system" sheetId="24" r:id="rId16"/>
-    <sheet name="technology_ei" sheetId="21" r:id="rId17"/>
-    <sheet name="feedstock_intensity" sheetId="17" r:id="rId18"/>
-    <sheet name="feedstock_emission" sheetId="12" r:id="rId19"/>
-    <sheet name="feedstock_introduction" sheetId="27" r:id="rId20"/>
-    <sheet name="Sheet1" sheetId="28" r:id="rId21"/>
+    <sheet name="capacity" sheetId="32" r:id="rId5"/>
+    <sheet name="capex" sheetId="13" r:id="rId6"/>
+    <sheet name="opex" sheetId="14" r:id="rId7"/>
+    <sheet name="renewal" sheetId="15" r:id="rId8"/>
+    <sheet name="technology" sheetId="19" r:id="rId9"/>
+    <sheet name="feedstock_max" sheetId="31" r:id="rId10"/>
+    <sheet name="fuel_max" sheetId="30" r:id="rId11"/>
+    <sheet name="carbonprice" sheetId="25" r:id="rId12"/>
+    <sheet name="emission" sheetId="23" r:id="rId13"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId14"/>
+    <sheet name="fuel_cost" sheetId="8" r:id="rId15"/>
+    <sheet name="feedstock_cost" sheetId="11" r:id="rId16"/>
+    <sheet name="fuel_intensity" sheetId="16" r:id="rId17"/>
+    <sheet name="fuel_emission" sheetId="10" r:id="rId18"/>
+    <sheet name="emission_system" sheetId="24" r:id="rId19"/>
+    <sheet name="technology_ei" sheetId="21" r:id="rId20"/>
+    <sheet name="feedstock_intensity" sheetId="17" r:id="rId21"/>
+    <sheet name="feedstock_emission" sheetId="12" r:id="rId22"/>
+    <sheet name="feedstock_introduction" sheetId="27" r:id="rId23"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -56,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="90">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -344,6 +346,21 @@
   <si>
     <t>0.87, 0.07, 0.04, 0.01</t>
   </si>
+  <si>
+    <t>GwangyangEAF1</t>
+  </si>
+  <si>
+    <t>PohangEAF1</t>
+  </si>
+  <si>
+    <t>HyundaiEAF1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                                       -</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                           -</t>
+  </si>
 </sst>
 </file>
 
@@ -501,7 +518,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -564,6 +581,8 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="41" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -580,853 +599,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:autoTitleDeleted val="1"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:f>feedstock_cost!$A$2:$A$9</c:f>
-              <c:strCache>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>Iron ore_BB</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Scrap_BB</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>HBI_BB</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Iron ore_BX</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>Iron ore_H2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>Scrap_H2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>Scrap_EAF</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>HBI_EAF</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>feedstock_cost!$B$2:$B$9</c:f>
-              <c:numCache>
-                <c:formatCode>_(* #,##0_);_(* \(#,##0\);_(* "-"_);_(@_)</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>138966</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>538408.9009146546</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>138966</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>138966</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>375000</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>538408.9009146546</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-55CD-8C4B-BA19-AF614BF25F4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="219"/>
-        <c:overlap val="-27"/>
-        <c:axId val="1771102623"/>
-        <c:axId val="704053967"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="1771102623"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="704053967"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="704053967"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="2000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1771102623"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr sz="2000"/>
-      </a:pPr>
-      <a:endParaRPr lang="en-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>241172</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>90824</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>348930</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>93903</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7C2BB0C-A94C-5A7E-481B-A652FC194CF7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1891,6 +1063,259 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243D0671-8D9D-2342-9E43-391541B6F06F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B73137-998C-504F-ABE4-EEC5B2D57393}">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F21" sqref="F21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
+  <dimension ref="A1:AA2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>65000</v>
+      </c>
+      <c r="C2" s="4">
+        <v>71500.000000000015</v>
+      </c>
+      <c r="D2" s="4">
+        <v>78650.000000000015</v>
+      </c>
+      <c r="E2" s="4">
+        <v>86515.000000000029</v>
+      </c>
+      <c r="F2" s="4">
+        <v>95166.500000000058</v>
+      </c>
+      <c r="G2" s="4">
+        <v>104683.15000000007</v>
+      </c>
+      <c r="H2" s="4">
+        <v>115151.46500000008</v>
+      </c>
+      <c r="I2" s="4">
+        <v>126666.6115000001</v>
+      </c>
+      <c r="J2" s="4">
+        <v>139333.27265000012</v>
+      </c>
+      <c r="K2" s="4">
+        <v>153266.59991500014</v>
+      </c>
+      <c r="L2" s="4">
+        <v>168593.25990650017</v>
+      </c>
+      <c r="M2" s="4">
+        <v>185452.58589715019</v>
+      </c>
+      <c r="N2" s="4">
+        <v>203997.84448686524</v>
+      </c>
+      <c r="O2" s="4">
+        <v>224397.62893555177</v>
+      </c>
+      <c r="P2" s="4">
+        <v>246837.39182910696</v>
+      </c>
+      <c r="Q2" s="4">
+        <v>271521.13101201766</v>
+      </c>
+      <c r="R2" s="4">
+        <v>298673.24411321944</v>
+      </c>
+      <c r="S2" s="4">
+        <v>328540.56852454145</v>
+      </c>
+      <c r="T2" s="4">
+        <v>361394.62537699559</v>
+      </c>
+      <c r="U2" s="4">
+        <v>397534.08791469521</v>
+      </c>
+      <c r="V2" s="4">
+        <v>437287.49670616473</v>
+      </c>
+      <c r="W2" s="4">
+        <v>481016.2463767812</v>
+      </c>
+      <c r="X2" s="4">
+        <v>529117.87101445941</v>
+      </c>
+      <c r="Y2" s="4">
+        <v>582029.65811590536</v>
+      </c>
+      <c r="Z2" s="4">
+        <v>640232.62392749602</v>
+      </c>
+      <c r="AA2" s="4">
+        <v>704255.88632024557</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
@@ -2086,7 +1511,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
   <dimension ref="A1:F19"/>
   <sheetViews>
@@ -2378,12 +1803,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{251D8908-2320-4E41-AC8F-86BD7BF58C9B}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="82" workbookViewId="0">
-      <selection activeCell="I29" sqref="I29"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3442,82 +2867,107 @@
         <v>56</v>
       </c>
       <c r="B13" s="16">
-        <v>32481</v>
+        <v>46888.9</v>
       </c>
       <c r="C13" s="16">
-        <v>32481</v>
+        <f>B13*(1.04)</f>
+        <v>48764.456000000006</v>
       </c>
       <c r="D13" s="16">
-        <v>32481</v>
+        <f t="shared" ref="D13:AA14" si="24">C13*(1.04)</f>
+        <v>50715.034240000008</v>
       </c>
       <c r="E13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>52743.635609600009</v>
       </c>
       <c r="F13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>54853.381033984013</v>
       </c>
       <c r="G13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>57047.516275343376</v>
       </c>
       <c r="H13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>59329.416926357117</v>
       </c>
       <c r="I13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>61702.593603411406</v>
       </c>
       <c r="J13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>64170.697347547866</v>
       </c>
       <c r="K13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>66737.525241449781</v>
       </c>
       <c r="L13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>69407.026251107774</v>
       </c>
       <c r="M13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>72183.30730115209</v>
       </c>
       <c r="N13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>75070.639593198182</v>
       </c>
       <c r="O13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>78073.465176926111</v>
       </c>
       <c r="P13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>81196.403784003152</v>
       </c>
       <c r="Q13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>84444.259935363283</v>
       </c>
       <c r="R13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>87822.030332777824</v>
       </c>
       <c r="S13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>91334.911546088944</v>
       </c>
       <c r="T13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>94988.308007932501</v>
       </c>
       <c r="U13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>98787.840328249804</v>
       </c>
       <c r="V13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>102739.3539413798</v>
       </c>
       <c r="W13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>106848.92809903499</v>
       </c>
       <c r="X13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>111122.8852229964</v>
       </c>
       <c r="Y13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>115567.80063191625</v>
       </c>
       <c r="Z13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>120190.5126571929</v>
       </c>
       <c r="AA13" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>124998.13316348063</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
@@ -3525,82 +2975,107 @@
         <v>57</v>
       </c>
       <c r="B14" s="16">
-        <v>32481</v>
+        <v>46888.9</v>
       </c>
       <c r="C14" s="16">
-        <v>32481</v>
+        <f>B14*(1.04)</f>
+        <v>48764.456000000006</v>
       </c>
       <c r="D14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>50715.034240000008</v>
       </c>
       <c r="E14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>52743.635609600009</v>
       </c>
       <c r="F14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>54853.381033984013</v>
       </c>
       <c r="G14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>57047.516275343376</v>
       </c>
       <c r="H14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>59329.416926357117</v>
       </c>
       <c r="I14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>61702.593603411406</v>
       </c>
       <c r="J14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>64170.697347547866</v>
       </c>
       <c r="K14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>66737.525241449781</v>
       </c>
       <c r="L14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>69407.026251107774</v>
       </c>
       <c r="M14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>72183.30730115209</v>
       </c>
       <c r="N14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>75070.639593198182</v>
       </c>
       <c r="O14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>78073.465176926111</v>
       </c>
       <c r="P14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>81196.403784003152</v>
       </c>
       <c r="Q14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>84444.259935363283</v>
       </c>
       <c r="R14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>87822.030332777824</v>
       </c>
       <c r="S14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>91334.911546088944</v>
       </c>
       <c r="T14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>94988.308007932501</v>
       </c>
       <c r="U14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>98787.840328249804</v>
       </c>
       <c r="V14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>102739.3539413798</v>
       </c>
       <c r="W14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>106848.92809903499</v>
       </c>
       <c r="X14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>111122.8852229964</v>
       </c>
       <c r="Y14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>115567.80063191625</v>
       </c>
       <c r="Z14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>120190.5126571929</v>
       </c>
       <c r="AA14" s="16">
-        <v>32481</v>
+        <f t="shared" si="24"/>
+        <v>124998.13316348063</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.2">
@@ -3693,12 +3168,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9059A3E3-467F-433B-AAF0-DA415330A29D}">
   <dimension ref="A1:AA11"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="99" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="J39" sqref="J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4465,11 +3940,10 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC1A385-697C-4C01-B126-79A22BD0CC72}">
   <dimension ref="A1:AA16"/>
   <sheetViews>
@@ -5738,7 +5212,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20EB8FDB-F47B-40C2-8266-6700BCAB2D8C}">
   <dimension ref="A1:AA15"/>
   <sheetViews>
@@ -7004,7 +6478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E683ACB1-236C-41D9-AD28-376C61929EF9}">
   <dimension ref="A1:AA14"/>
   <sheetViews>
@@ -8178,1977 +7652,6 @@
       </c>
       <c r="AA14">
         <v>99999999</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
-  <dimension ref="A1:AA5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-      <c r="K2">
-        <v>1</v>
-      </c>
-      <c r="L2">
-        <v>1</v>
-      </c>
-      <c r="M2">
-        <v>1</v>
-      </c>
-      <c r="N2">
-        <v>1</v>
-      </c>
-      <c r="O2">
-        <v>1</v>
-      </c>
-      <c r="P2">
-        <v>1</v>
-      </c>
-      <c r="Q2">
-        <v>1</v>
-      </c>
-      <c r="R2">
-        <v>1</v>
-      </c>
-      <c r="S2">
-        <v>1</v>
-      </c>
-      <c r="T2">
-        <v>1</v>
-      </c>
-      <c r="U2">
-        <v>1</v>
-      </c>
-      <c r="V2">
-        <v>1</v>
-      </c>
-      <c r="W2">
-        <v>1</v>
-      </c>
-      <c r="X2">
-        <v>1</v>
-      </c>
-      <c r="Y2">
-        <v>1</v>
-      </c>
-      <c r="Z2">
-        <v>1</v>
-      </c>
-      <c r="AA2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>0.8</v>
-      </c>
-      <c r="C3">
-        <v>0.8</v>
-      </c>
-      <c r="D3">
-        <v>0.8</v>
-      </c>
-      <c r="E3">
-        <v>0.8</v>
-      </c>
-      <c r="F3">
-        <v>0.8</v>
-      </c>
-      <c r="G3">
-        <v>0.8</v>
-      </c>
-      <c r="H3">
-        <v>0.8</v>
-      </c>
-      <c r="I3">
-        <v>0.8</v>
-      </c>
-      <c r="J3">
-        <v>0.8</v>
-      </c>
-      <c r="K3">
-        <v>0.8</v>
-      </c>
-      <c r="L3">
-        <v>0.8</v>
-      </c>
-      <c r="M3">
-        <v>0.8</v>
-      </c>
-      <c r="N3">
-        <v>0.8</v>
-      </c>
-      <c r="O3">
-        <v>0.8</v>
-      </c>
-      <c r="P3">
-        <v>0.8</v>
-      </c>
-      <c r="Q3">
-        <v>0.8</v>
-      </c>
-      <c r="R3">
-        <v>0.8</v>
-      </c>
-      <c r="S3">
-        <v>0.8</v>
-      </c>
-      <c r="T3">
-        <v>0.8</v>
-      </c>
-      <c r="U3">
-        <v>0.8</v>
-      </c>
-      <c r="V3">
-        <v>0.8</v>
-      </c>
-      <c r="W3">
-        <v>0.8</v>
-      </c>
-      <c r="X3">
-        <v>0.8</v>
-      </c>
-      <c r="Y3">
-        <v>0.8</v>
-      </c>
-      <c r="Z3">
-        <v>0.8</v>
-      </c>
-      <c r="AA3">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4">
-        <v>1</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>1</v>
-      </c>
-      <c r="M4">
-        <v>1</v>
-      </c>
-      <c r="N4">
-        <v>1</v>
-      </c>
-      <c r="O4">
-        <v>1</v>
-      </c>
-      <c r="P4">
-        <v>1</v>
-      </c>
-      <c r="Q4">
-        <v>1</v>
-      </c>
-      <c r="R4">
-        <v>1</v>
-      </c>
-      <c r="S4">
-        <v>1</v>
-      </c>
-      <c r="T4">
-        <v>1</v>
-      </c>
-      <c r="U4">
-        <v>1</v>
-      </c>
-      <c r="V4">
-        <v>1</v>
-      </c>
-      <c r="W4">
-        <v>1</v>
-      </c>
-      <c r="X4">
-        <v>1</v>
-      </c>
-      <c r="Y4">
-        <v>1</v>
-      </c>
-      <c r="Z4">
-        <v>1</v>
-      </c>
-      <c r="AA4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
-        <v>1</v>
-      </c>
-      <c r="G5">
-        <v>1</v>
-      </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
-        <v>1</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5">
-        <v>1</v>
-      </c>
-      <c r="M5">
-        <v>1</v>
-      </c>
-      <c r="N5">
-        <v>1</v>
-      </c>
-      <c r="O5">
-        <v>1</v>
-      </c>
-      <c r="P5">
-        <v>1</v>
-      </c>
-      <c r="Q5">
-        <v>1</v>
-      </c>
-      <c r="R5">
-        <v>1</v>
-      </c>
-      <c r="S5">
-        <v>1</v>
-      </c>
-      <c r="T5">
-        <v>1</v>
-      </c>
-      <c r="U5">
-        <v>1</v>
-      </c>
-      <c r="V5">
-        <v>1</v>
-      </c>
-      <c r="W5">
-        <v>1</v>
-      </c>
-      <c r="X5">
-        <v>1</v>
-      </c>
-      <c r="Y5">
-        <v>1</v>
-      </c>
-      <c r="Z5">
-        <v>1</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
-  <dimension ref="A1:AA9"/>
-  <sheetViews>
-    <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2">
-        <v>1.65</v>
-      </c>
-      <c r="C2">
-        <v>1.65</v>
-      </c>
-      <c r="D2">
-        <v>1.65</v>
-      </c>
-      <c r="E2">
-        <v>1.65</v>
-      </c>
-      <c r="F2">
-        <v>1.65</v>
-      </c>
-      <c r="G2">
-        <v>1.65</v>
-      </c>
-      <c r="H2">
-        <v>1.65</v>
-      </c>
-      <c r="I2">
-        <v>1.65</v>
-      </c>
-      <c r="J2">
-        <v>1.65</v>
-      </c>
-      <c r="K2">
-        <v>1.65</v>
-      </c>
-      <c r="L2">
-        <v>1.65</v>
-      </c>
-      <c r="M2">
-        <v>1.65</v>
-      </c>
-      <c r="N2">
-        <v>1.65</v>
-      </c>
-      <c r="O2">
-        <v>1.65</v>
-      </c>
-      <c r="P2">
-        <v>1.65</v>
-      </c>
-      <c r="Q2">
-        <v>1.65</v>
-      </c>
-      <c r="R2">
-        <v>1.65</v>
-      </c>
-      <c r="S2">
-        <v>1.65</v>
-      </c>
-      <c r="T2">
-        <v>1.65</v>
-      </c>
-      <c r="U2">
-        <v>1.65</v>
-      </c>
-      <c r="V2">
-        <v>1.65</v>
-      </c>
-      <c r="W2">
-        <v>1.65</v>
-      </c>
-      <c r="X2">
-        <v>1.65</v>
-      </c>
-      <c r="Y2">
-        <v>1.65</v>
-      </c>
-      <c r="Z2">
-        <v>1.65</v>
-      </c>
-      <c r="AA2">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z3">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA3">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4">
-        <v>1.05</v>
-      </c>
-      <c r="C4">
-        <v>1.05</v>
-      </c>
-      <c r="D4">
-        <v>1.05</v>
-      </c>
-      <c r="E4">
-        <v>1.05</v>
-      </c>
-      <c r="F4">
-        <v>1.05</v>
-      </c>
-      <c r="G4">
-        <v>1.05</v>
-      </c>
-      <c r="H4">
-        <v>1.05</v>
-      </c>
-      <c r="I4">
-        <v>1.05</v>
-      </c>
-      <c r="J4">
-        <v>1.05</v>
-      </c>
-      <c r="K4">
-        <v>1.05</v>
-      </c>
-      <c r="L4">
-        <v>1.05</v>
-      </c>
-      <c r="M4">
-        <v>1.05</v>
-      </c>
-      <c r="N4">
-        <v>1.05</v>
-      </c>
-      <c r="O4">
-        <v>1.05</v>
-      </c>
-      <c r="P4">
-        <v>1.05</v>
-      </c>
-      <c r="Q4">
-        <v>1.05</v>
-      </c>
-      <c r="R4">
-        <v>1.05</v>
-      </c>
-      <c r="S4">
-        <v>1.05</v>
-      </c>
-      <c r="T4">
-        <v>1.05</v>
-      </c>
-      <c r="U4">
-        <v>1.05</v>
-      </c>
-      <c r="V4">
-        <v>1.05</v>
-      </c>
-      <c r="W4">
-        <v>1.05</v>
-      </c>
-      <c r="X4">
-        <v>1.05</v>
-      </c>
-      <c r="Y4">
-        <v>1.05</v>
-      </c>
-      <c r="Z4">
-        <v>1.05</v>
-      </c>
-      <c r="AA4">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5">
-        <v>1.65</v>
-      </c>
-      <c r="C5">
-        <v>1.65</v>
-      </c>
-      <c r="D5">
-        <v>1.65</v>
-      </c>
-      <c r="E5">
-        <v>1.65</v>
-      </c>
-      <c r="F5">
-        <v>1.65</v>
-      </c>
-      <c r="G5">
-        <v>1.65</v>
-      </c>
-      <c r="H5">
-        <v>1.65</v>
-      </c>
-      <c r="I5">
-        <v>1.65</v>
-      </c>
-      <c r="J5">
-        <v>1.65</v>
-      </c>
-      <c r="K5">
-        <v>1.65</v>
-      </c>
-      <c r="L5">
-        <v>1.65</v>
-      </c>
-      <c r="M5">
-        <v>1.65</v>
-      </c>
-      <c r="N5">
-        <v>1.65</v>
-      </c>
-      <c r="O5">
-        <v>1.65</v>
-      </c>
-      <c r="P5">
-        <v>1.65</v>
-      </c>
-      <c r="Q5">
-        <v>1.65</v>
-      </c>
-      <c r="R5">
-        <v>1.65</v>
-      </c>
-      <c r="S5">
-        <v>1.65</v>
-      </c>
-      <c r="T5">
-        <v>1.65</v>
-      </c>
-      <c r="U5">
-        <v>1.65</v>
-      </c>
-      <c r="V5">
-        <v>1.65</v>
-      </c>
-      <c r="W5">
-        <v>1.65</v>
-      </c>
-      <c r="X5">
-        <v>1.65</v>
-      </c>
-      <c r="Y5">
-        <v>1.65</v>
-      </c>
-      <c r="Z5">
-        <v>1.65</v>
-      </c>
-      <c r="AA5">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6">
-        <v>1.65</v>
-      </c>
-      <c r="C6">
-        <v>1.65</v>
-      </c>
-      <c r="D6">
-        <v>1.65</v>
-      </c>
-      <c r="E6">
-        <v>1.65</v>
-      </c>
-      <c r="F6">
-        <v>1.65</v>
-      </c>
-      <c r="G6">
-        <v>1.65</v>
-      </c>
-      <c r="H6">
-        <v>1.65</v>
-      </c>
-      <c r="I6">
-        <v>1.65</v>
-      </c>
-      <c r="J6">
-        <v>1.65</v>
-      </c>
-      <c r="K6">
-        <v>1.65</v>
-      </c>
-      <c r="L6">
-        <v>1.65</v>
-      </c>
-      <c r="M6">
-        <v>1.65</v>
-      </c>
-      <c r="N6">
-        <v>1.65</v>
-      </c>
-      <c r="O6">
-        <v>1.65</v>
-      </c>
-      <c r="P6">
-        <v>1.65</v>
-      </c>
-      <c r="Q6">
-        <v>1.65</v>
-      </c>
-      <c r="R6">
-        <v>1.65</v>
-      </c>
-      <c r="S6">
-        <v>1.65</v>
-      </c>
-      <c r="T6">
-        <v>1.65</v>
-      </c>
-      <c r="U6">
-        <v>1.65</v>
-      </c>
-      <c r="V6">
-        <v>1.65</v>
-      </c>
-      <c r="W6">
-        <v>1.65</v>
-      </c>
-      <c r="X6">
-        <v>1.65</v>
-      </c>
-      <c r="Y6">
-        <v>1.65</v>
-      </c>
-      <c r="Z6">
-        <v>1.65</v>
-      </c>
-      <c r="AA6">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z7">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA7">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="D8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="E8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="G8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="J8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="K8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="L8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="M8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="N8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="O8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="P8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Q8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="R8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="S8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="T8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="U8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="V8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="W8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="X8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Y8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="Z8">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="AA8">
-        <v>1.1000000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9">
-        <v>1.05</v>
-      </c>
-      <c r="C9">
-        <v>1.05</v>
-      </c>
-      <c r="D9">
-        <v>1.05</v>
-      </c>
-      <c r="E9">
-        <v>1.05</v>
-      </c>
-      <c r="F9">
-        <v>1.05</v>
-      </c>
-      <c r="G9">
-        <v>1.05</v>
-      </c>
-      <c r="H9">
-        <v>1.05</v>
-      </c>
-      <c r="I9">
-        <v>1.05</v>
-      </c>
-      <c r="J9">
-        <v>1.05</v>
-      </c>
-      <c r="K9">
-        <v>1.05</v>
-      </c>
-      <c r="L9">
-        <v>1.05</v>
-      </c>
-      <c r="M9">
-        <v>1.05</v>
-      </c>
-      <c r="N9">
-        <v>1.05</v>
-      </c>
-      <c r="O9">
-        <v>1.05</v>
-      </c>
-      <c r="P9">
-        <v>1.05</v>
-      </c>
-      <c r="Q9">
-        <v>1.05</v>
-      </c>
-      <c r="R9">
-        <v>1.05</v>
-      </c>
-      <c r="S9">
-        <v>1.05</v>
-      </c>
-      <c r="T9">
-        <v>1.05</v>
-      </c>
-      <c r="U9">
-        <v>1.05</v>
-      </c>
-      <c r="V9">
-        <v>1.05</v>
-      </c>
-      <c r="W9">
-        <v>1.05</v>
-      </c>
-      <c r="X9">
-        <v>1.05</v>
-      </c>
-      <c r="Y9">
-        <v>1.05</v>
-      </c>
-      <c r="Z9">
-        <v>1.05</v>
-      </c>
-      <c r="AA9">
-        <v>1.05</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
-  <dimension ref="A1:AA9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
-        <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="B2" s="3">
-        <v>0</v>
-      </c>
-      <c r="C2" s="3">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0</v>
-      </c>
-      <c r="F2" s="3">
-        <v>0</v>
-      </c>
-      <c r="G2" s="3">
-        <v>0</v>
-      </c>
-      <c r="H2" s="3">
-        <v>0</v>
-      </c>
-      <c r="I2" s="3">
-        <v>0</v>
-      </c>
-      <c r="J2" s="3">
-        <v>0</v>
-      </c>
-      <c r="K2" s="3">
-        <v>0</v>
-      </c>
-      <c r="L2" s="3">
-        <v>0</v>
-      </c>
-      <c r="M2" s="3">
-        <v>0</v>
-      </c>
-      <c r="N2" s="3">
-        <v>0</v>
-      </c>
-      <c r="O2" s="3">
-        <v>0</v>
-      </c>
-      <c r="P2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q2" s="3">
-        <v>0</v>
-      </c>
-      <c r="R2" s="3">
-        <v>0</v>
-      </c>
-      <c r="S2" s="3">
-        <v>0</v>
-      </c>
-      <c r="T2" s="3">
-        <v>0</v>
-      </c>
-      <c r="U2" s="3">
-        <v>0</v>
-      </c>
-      <c r="V2" s="3">
-        <v>0</v>
-      </c>
-      <c r="W2" s="3">
-        <v>0</v>
-      </c>
-      <c r="X2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y2" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z2" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA2" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="B3" s="3">
-        <v>0</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0</v>
-      </c>
-      <c r="G3" s="3">
-        <v>0</v>
-      </c>
-      <c r="H3" s="3">
-        <v>0</v>
-      </c>
-      <c r="I3" s="3">
-        <v>0</v>
-      </c>
-      <c r="J3" s="3">
-        <v>0</v>
-      </c>
-      <c r="K3" s="3">
-        <v>0</v>
-      </c>
-      <c r="L3" s="3">
-        <v>0</v>
-      </c>
-      <c r="M3" s="3">
-        <v>0</v>
-      </c>
-      <c r="N3" s="3">
-        <v>0</v>
-      </c>
-      <c r="O3" s="3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q3" s="3">
-        <v>0</v>
-      </c>
-      <c r="R3" s="3">
-        <v>0</v>
-      </c>
-      <c r="S3" s="3">
-        <v>0</v>
-      </c>
-      <c r="T3" s="3">
-        <v>0</v>
-      </c>
-      <c r="U3" s="3">
-        <v>0</v>
-      </c>
-      <c r="V3" s="3">
-        <v>0</v>
-      </c>
-      <c r="W3" s="3">
-        <v>0</v>
-      </c>
-      <c r="X3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z3" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA3" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="3">
-        <v>0</v>
-      </c>
-      <c r="C4" s="3">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3">
-        <v>0</v>
-      </c>
-      <c r="H4" s="3">
-        <v>0</v>
-      </c>
-      <c r="I4" s="3">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3">
-        <v>0</v>
-      </c>
-      <c r="K4" s="3">
-        <v>0</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0</v>
-      </c>
-      <c r="M4" s="3">
-        <v>0</v>
-      </c>
-      <c r="N4" s="3">
-        <v>0</v>
-      </c>
-      <c r="O4" s="3">
-        <v>0</v>
-      </c>
-      <c r="P4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="3">
-        <v>0</v>
-      </c>
-      <c r="R4" s="3">
-        <v>0</v>
-      </c>
-      <c r="S4" s="3">
-        <v>0</v>
-      </c>
-      <c r="T4" s="3">
-        <v>0</v>
-      </c>
-      <c r="U4" s="3">
-        <v>0</v>
-      </c>
-      <c r="V4" s="3">
-        <v>0</v>
-      </c>
-      <c r="W4" s="3">
-        <v>0</v>
-      </c>
-      <c r="X4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z4" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA4" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="B5" s="3">
-        <v>0</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3">
-        <v>0</v>
-      </c>
-      <c r="H5" s="3">
-        <v>0</v>
-      </c>
-      <c r="I5" s="3">
-        <v>0</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0</v>
-      </c>
-      <c r="K5" s="3">
-        <v>0</v>
-      </c>
-      <c r="L5" s="3">
-        <v>0</v>
-      </c>
-      <c r="M5" s="3">
-        <v>0</v>
-      </c>
-      <c r="N5" s="3">
-        <v>0</v>
-      </c>
-      <c r="O5" s="3">
-        <v>0</v>
-      </c>
-      <c r="P5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="3">
-        <v>0</v>
-      </c>
-      <c r="R5" s="3">
-        <v>0</v>
-      </c>
-      <c r="S5" s="3">
-        <v>0</v>
-      </c>
-      <c r="T5" s="3">
-        <v>0</v>
-      </c>
-      <c r="U5" s="3">
-        <v>0</v>
-      </c>
-      <c r="V5" s="3">
-        <v>0</v>
-      </c>
-      <c r="W5" s="3">
-        <v>0</v>
-      </c>
-      <c r="X5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA5" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B6" s="3">
-        <v>0</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3">
-        <v>0</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0</v>
-      </c>
-      <c r="I6" s="3">
-        <v>0</v>
-      </c>
-      <c r="J6" s="3">
-        <v>0</v>
-      </c>
-      <c r="K6" s="3">
-        <v>0</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0</v>
-      </c>
-      <c r="M6" s="3">
-        <v>0</v>
-      </c>
-      <c r="N6" s="3">
-        <v>0</v>
-      </c>
-      <c r="O6" s="3">
-        <v>0</v>
-      </c>
-      <c r="P6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="3">
-        <v>0</v>
-      </c>
-      <c r="R6" s="3">
-        <v>0</v>
-      </c>
-      <c r="S6" s="3">
-        <v>0</v>
-      </c>
-      <c r="T6" s="3">
-        <v>0</v>
-      </c>
-      <c r="U6" s="3">
-        <v>0</v>
-      </c>
-      <c r="V6" s="3">
-        <v>0</v>
-      </c>
-      <c r="W6" s="3">
-        <v>0</v>
-      </c>
-      <c r="X6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA6" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B7" s="3">
-        <v>0</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0</v>
-      </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0</v>
-      </c>
-      <c r="I7" s="3">
-        <v>0</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0</v>
-      </c>
-      <c r="K7" s="3">
-        <v>0</v>
-      </c>
-      <c r="L7" s="3">
-        <v>0</v>
-      </c>
-      <c r="M7" s="3">
-        <v>0</v>
-      </c>
-      <c r="N7" s="3">
-        <v>0</v>
-      </c>
-      <c r="O7" s="3">
-        <v>0</v>
-      </c>
-      <c r="P7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="3">
-        <v>0</v>
-      </c>
-      <c r="R7" s="3">
-        <v>0</v>
-      </c>
-      <c r="S7" s="3">
-        <v>0</v>
-      </c>
-      <c r="T7" s="3">
-        <v>0</v>
-      </c>
-      <c r="U7" s="3">
-        <v>0</v>
-      </c>
-      <c r="V7" s="3">
-        <v>0</v>
-      </c>
-      <c r="W7" s="3">
-        <v>0</v>
-      </c>
-      <c r="X7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y7" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z7" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA7" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="B8" s="3">
-        <v>0</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0</v>
-      </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0</v>
-      </c>
-      <c r="I8" s="3">
-        <v>0</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0</v>
-      </c>
-      <c r="K8" s="3">
-        <v>0</v>
-      </c>
-      <c r="L8" s="3">
-        <v>0</v>
-      </c>
-      <c r="M8" s="3">
-        <v>0</v>
-      </c>
-      <c r="N8" s="3">
-        <v>0</v>
-      </c>
-      <c r="O8" s="3">
-        <v>0</v>
-      </c>
-      <c r="P8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="3">
-        <v>0</v>
-      </c>
-      <c r="R8" s="3">
-        <v>0</v>
-      </c>
-      <c r="S8" s="3">
-        <v>0</v>
-      </c>
-      <c r="T8" s="3">
-        <v>0</v>
-      </c>
-      <c r="U8" s="3">
-        <v>0</v>
-      </c>
-      <c r="V8" s="3">
-        <v>0</v>
-      </c>
-      <c r="W8" s="3">
-        <v>0</v>
-      </c>
-      <c r="X8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA8" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="B9" s="3">
-        <v>0</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="3">
-        <v>0</v>
-      </c>
-      <c r="I9" s="3">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3">
-        <v>0</v>
-      </c>
-      <c r="K9" s="3">
-        <v>0</v>
-      </c>
-      <c r="L9" s="3">
-        <v>0</v>
-      </c>
-      <c r="M9" s="3">
-        <v>0</v>
-      </c>
-      <c r="N9" s="3">
-        <v>0</v>
-      </c>
-      <c r="O9" s="3">
-        <v>0</v>
-      </c>
-      <c r="P9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="3">
-        <v>0</v>
-      </c>
-      <c r="R9" s="3">
-        <v>0</v>
-      </c>
-      <c r="S9" s="3">
-        <v>0</v>
-      </c>
-      <c r="T9" s="3">
-        <v>0</v>
-      </c>
-      <c r="U9" s="3">
-        <v>0</v>
-      </c>
-      <c r="V9" s="3">
-        <v>0</v>
-      </c>
-      <c r="W9" s="3">
-        <v>0</v>
-      </c>
-      <c r="X9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="3">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="3">
-        <v>0</v>
-      </c>
-      <c r="AA9" s="3">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -10344,11 +7847,1982 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F464A74C-C8AE-4B5D-B335-B05DB5565181}">
+  <dimension ref="A1:AA5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>1</v>
+      </c>
+      <c r="O2">
+        <v>1</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>1</v>
+      </c>
+      <c r="R2">
+        <v>1</v>
+      </c>
+      <c r="S2">
+        <v>1</v>
+      </c>
+      <c r="T2">
+        <v>1</v>
+      </c>
+      <c r="U2">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>1</v>
+      </c>
+      <c r="W2">
+        <v>1</v>
+      </c>
+      <c r="X2">
+        <v>1</v>
+      </c>
+      <c r="Y2">
+        <v>1</v>
+      </c>
+      <c r="Z2">
+        <v>1</v>
+      </c>
+      <c r="AA2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <v>0.8</v>
+      </c>
+      <c r="D3">
+        <v>0.8</v>
+      </c>
+      <c r="E3">
+        <v>0.8</v>
+      </c>
+      <c r="F3">
+        <v>0.8</v>
+      </c>
+      <c r="G3">
+        <v>0.8</v>
+      </c>
+      <c r="H3">
+        <v>0.8</v>
+      </c>
+      <c r="I3">
+        <v>0.8</v>
+      </c>
+      <c r="J3">
+        <v>0.8</v>
+      </c>
+      <c r="K3">
+        <v>0.8</v>
+      </c>
+      <c r="L3">
+        <v>0.8</v>
+      </c>
+      <c r="M3">
+        <v>0.8</v>
+      </c>
+      <c r="N3">
+        <v>0.8</v>
+      </c>
+      <c r="O3">
+        <v>0.8</v>
+      </c>
+      <c r="P3">
+        <v>0.8</v>
+      </c>
+      <c r="Q3">
+        <v>0.8</v>
+      </c>
+      <c r="R3">
+        <v>0.8</v>
+      </c>
+      <c r="S3">
+        <v>0.8</v>
+      </c>
+      <c r="T3">
+        <v>0.8</v>
+      </c>
+      <c r="U3">
+        <v>0.8</v>
+      </c>
+      <c r="V3">
+        <v>0.8</v>
+      </c>
+      <c r="W3">
+        <v>0.8</v>
+      </c>
+      <c r="X3">
+        <v>0.8</v>
+      </c>
+      <c r="Y3">
+        <v>0.8</v>
+      </c>
+      <c r="Z3">
+        <v>0.8</v>
+      </c>
+      <c r="AA3">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>1</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>1</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>1</v>
+      </c>
+      <c r="O4">
+        <v>1</v>
+      </c>
+      <c r="P4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>1</v>
+      </c>
+      <c r="R4">
+        <v>1</v>
+      </c>
+      <c r="S4">
+        <v>1</v>
+      </c>
+      <c r="T4">
+        <v>1</v>
+      </c>
+      <c r="U4">
+        <v>1</v>
+      </c>
+      <c r="V4">
+        <v>1</v>
+      </c>
+      <c r="W4">
+        <v>1</v>
+      </c>
+      <c r="X4">
+        <v>1</v>
+      </c>
+      <c r="Y4">
+        <v>1</v>
+      </c>
+      <c r="Z4">
+        <v>1</v>
+      </c>
+      <c r="AA4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>1</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>1</v>
+      </c>
+      <c r="O5">
+        <v>1</v>
+      </c>
+      <c r="P5">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+      <c r="R5">
+        <v>1</v>
+      </c>
+      <c r="S5">
+        <v>1</v>
+      </c>
+      <c r="T5">
+        <v>1</v>
+      </c>
+      <c r="U5">
+        <v>1</v>
+      </c>
+      <c r="V5">
+        <v>1</v>
+      </c>
+      <c r="W5">
+        <v>1</v>
+      </c>
+      <c r="X5">
+        <v>1</v>
+      </c>
+      <c r="Y5">
+        <v>1</v>
+      </c>
+      <c r="Z5">
+        <v>1</v>
+      </c>
+      <c r="AA5">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3CF035B-C14B-46B7-A841-579E94220A37}">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView zoomScale="112" zoomScaleNormal="47" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2">
+        <v>1.65</v>
+      </c>
+      <c r="C2">
+        <v>1.65</v>
+      </c>
+      <c r="D2">
+        <v>1.65</v>
+      </c>
+      <c r="E2">
+        <v>1.65</v>
+      </c>
+      <c r="F2">
+        <v>1.65</v>
+      </c>
+      <c r="G2">
+        <v>1.65</v>
+      </c>
+      <c r="H2">
+        <v>1.65</v>
+      </c>
+      <c r="I2">
+        <v>1.65</v>
+      </c>
+      <c r="J2">
+        <v>1.65</v>
+      </c>
+      <c r="K2">
+        <v>1.65</v>
+      </c>
+      <c r="L2">
+        <v>1.65</v>
+      </c>
+      <c r="M2">
+        <v>1.65</v>
+      </c>
+      <c r="N2">
+        <v>1.65</v>
+      </c>
+      <c r="O2">
+        <v>1.65</v>
+      </c>
+      <c r="P2">
+        <v>1.65</v>
+      </c>
+      <c r="Q2">
+        <v>1.65</v>
+      </c>
+      <c r="R2">
+        <v>1.65</v>
+      </c>
+      <c r="S2">
+        <v>1.65</v>
+      </c>
+      <c r="T2">
+        <v>1.65</v>
+      </c>
+      <c r="U2">
+        <v>1.65</v>
+      </c>
+      <c r="V2">
+        <v>1.65</v>
+      </c>
+      <c r="W2">
+        <v>1.65</v>
+      </c>
+      <c r="X2">
+        <v>1.65</v>
+      </c>
+      <c r="Y2">
+        <v>1.65</v>
+      </c>
+      <c r="Z2">
+        <v>1.65</v>
+      </c>
+      <c r="AA2">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA3">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4">
+        <v>1.05</v>
+      </c>
+      <c r="C4">
+        <v>1.05</v>
+      </c>
+      <c r="D4">
+        <v>1.05</v>
+      </c>
+      <c r="E4">
+        <v>1.05</v>
+      </c>
+      <c r="F4">
+        <v>1.05</v>
+      </c>
+      <c r="G4">
+        <v>1.05</v>
+      </c>
+      <c r="H4">
+        <v>1.05</v>
+      </c>
+      <c r="I4">
+        <v>1.05</v>
+      </c>
+      <c r="J4">
+        <v>1.05</v>
+      </c>
+      <c r="K4">
+        <v>1.05</v>
+      </c>
+      <c r="L4">
+        <v>1.05</v>
+      </c>
+      <c r="M4">
+        <v>1.05</v>
+      </c>
+      <c r="N4">
+        <v>1.05</v>
+      </c>
+      <c r="O4">
+        <v>1.05</v>
+      </c>
+      <c r="P4">
+        <v>1.05</v>
+      </c>
+      <c r="Q4">
+        <v>1.05</v>
+      </c>
+      <c r="R4">
+        <v>1.05</v>
+      </c>
+      <c r="S4">
+        <v>1.05</v>
+      </c>
+      <c r="T4">
+        <v>1.05</v>
+      </c>
+      <c r="U4">
+        <v>1.05</v>
+      </c>
+      <c r="V4">
+        <v>1.05</v>
+      </c>
+      <c r="W4">
+        <v>1.05</v>
+      </c>
+      <c r="X4">
+        <v>1.05</v>
+      </c>
+      <c r="Y4">
+        <v>1.05</v>
+      </c>
+      <c r="Z4">
+        <v>1.05</v>
+      </c>
+      <c r="AA4">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5">
+        <v>1.65</v>
+      </c>
+      <c r="C5">
+        <v>1.65</v>
+      </c>
+      <c r="D5">
+        <v>1.65</v>
+      </c>
+      <c r="E5">
+        <v>1.65</v>
+      </c>
+      <c r="F5">
+        <v>1.65</v>
+      </c>
+      <c r="G5">
+        <v>1.65</v>
+      </c>
+      <c r="H5">
+        <v>1.65</v>
+      </c>
+      <c r="I5">
+        <v>1.65</v>
+      </c>
+      <c r="J5">
+        <v>1.65</v>
+      </c>
+      <c r="K5">
+        <v>1.65</v>
+      </c>
+      <c r="L5">
+        <v>1.65</v>
+      </c>
+      <c r="M5">
+        <v>1.65</v>
+      </c>
+      <c r="N5">
+        <v>1.65</v>
+      </c>
+      <c r="O5">
+        <v>1.65</v>
+      </c>
+      <c r="P5">
+        <v>1.65</v>
+      </c>
+      <c r="Q5">
+        <v>1.65</v>
+      </c>
+      <c r="R5">
+        <v>1.65</v>
+      </c>
+      <c r="S5">
+        <v>1.65</v>
+      </c>
+      <c r="T5">
+        <v>1.65</v>
+      </c>
+      <c r="U5">
+        <v>1.65</v>
+      </c>
+      <c r="V5">
+        <v>1.65</v>
+      </c>
+      <c r="W5">
+        <v>1.65</v>
+      </c>
+      <c r="X5">
+        <v>1.65</v>
+      </c>
+      <c r="Y5">
+        <v>1.65</v>
+      </c>
+      <c r="Z5">
+        <v>1.65</v>
+      </c>
+      <c r="AA5">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6">
+        <v>1.65</v>
+      </c>
+      <c r="C6">
+        <v>1.65</v>
+      </c>
+      <c r="D6">
+        <v>1.65</v>
+      </c>
+      <c r="E6">
+        <v>1.65</v>
+      </c>
+      <c r="F6">
+        <v>1.65</v>
+      </c>
+      <c r="G6">
+        <v>1.65</v>
+      </c>
+      <c r="H6">
+        <v>1.65</v>
+      </c>
+      <c r="I6">
+        <v>1.65</v>
+      </c>
+      <c r="J6">
+        <v>1.65</v>
+      </c>
+      <c r="K6">
+        <v>1.65</v>
+      </c>
+      <c r="L6">
+        <v>1.65</v>
+      </c>
+      <c r="M6">
+        <v>1.65</v>
+      </c>
+      <c r="N6">
+        <v>1.65</v>
+      </c>
+      <c r="O6">
+        <v>1.65</v>
+      </c>
+      <c r="P6">
+        <v>1.65</v>
+      </c>
+      <c r="Q6">
+        <v>1.65</v>
+      </c>
+      <c r="R6">
+        <v>1.65</v>
+      </c>
+      <c r="S6">
+        <v>1.65</v>
+      </c>
+      <c r="T6">
+        <v>1.65</v>
+      </c>
+      <c r="U6">
+        <v>1.65</v>
+      </c>
+      <c r="V6">
+        <v>1.65</v>
+      </c>
+      <c r="W6">
+        <v>1.65</v>
+      </c>
+      <c r="X6">
+        <v>1.65</v>
+      </c>
+      <c r="Y6">
+        <v>1.65</v>
+      </c>
+      <c r="Z6">
+        <v>1.65</v>
+      </c>
+      <c r="AA6">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z7">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA7">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="D8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="G8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="I8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="K8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="L8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="M8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="O8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="P8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Q8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="R8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="S8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="T8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="U8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="V8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="W8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="X8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Y8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z8">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="AA8">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9">
+        <v>1.05</v>
+      </c>
+      <c r="C9">
+        <v>1.05</v>
+      </c>
+      <c r="D9">
+        <v>1.05</v>
+      </c>
+      <c r="E9">
+        <v>1.05</v>
+      </c>
+      <c r="F9">
+        <v>1.05</v>
+      </c>
+      <c r="G9">
+        <v>1.05</v>
+      </c>
+      <c r="H9">
+        <v>1.05</v>
+      </c>
+      <c r="I9">
+        <v>1.05</v>
+      </c>
+      <c r="J9">
+        <v>1.05</v>
+      </c>
+      <c r="K9">
+        <v>1.05</v>
+      </c>
+      <c r="L9">
+        <v>1.05</v>
+      </c>
+      <c r="M9">
+        <v>1.05</v>
+      </c>
+      <c r="N9">
+        <v>1.05</v>
+      </c>
+      <c r="O9">
+        <v>1.05</v>
+      </c>
+      <c r="P9">
+        <v>1.05</v>
+      </c>
+      <c r="Q9">
+        <v>1.05</v>
+      </c>
+      <c r="R9">
+        <v>1.05</v>
+      </c>
+      <c r="S9">
+        <v>1.05</v>
+      </c>
+      <c r="T9">
+        <v>1.05</v>
+      </c>
+      <c r="U9">
+        <v>1.05</v>
+      </c>
+      <c r="V9">
+        <v>1.05</v>
+      </c>
+      <c r="W9">
+        <v>1.05</v>
+      </c>
+      <c r="X9">
+        <v>1.05</v>
+      </c>
+      <c r="Y9">
+        <v>1.05</v>
+      </c>
+      <c r="Z9">
+        <v>1.05</v>
+      </c>
+      <c r="AA9">
+        <v>1.05</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A95E18AD-1C92-4B5C-962D-792F4AC09175}">
+  <dimension ref="A1:AA9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="27" width="9.83203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" s="3">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3">
+        <v>0</v>
+      </c>
+      <c r="D2" s="3">
+        <v>0</v>
+      </c>
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+      <c r="F2" s="3">
+        <v>0</v>
+      </c>
+      <c r="G2" s="3">
+        <v>0</v>
+      </c>
+      <c r="H2" s="3">
+        <v>0</v>
+      </c>
+      <c r="I2" s="3">
+        <v>0</v>
+      </c>
+      <c r="J2" s="3">
+        <v>0</v>
+      </c>
+      <c r="K2" s="3">
+        <v>0</v>
+      </c>
+      <c r="L2" s="3">
+        <v>0</v>
+      </c>
+      <c r="M2" s="3">
+        <v>0</v>
+      </c>
+      <c r="N2" s="3">
+        <v>0</v>
+      </c>
+      <c r="O2" s="3">
+        <v>0</v>
+      </c>
+      <c r="P2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q2" s="3">
+        <v>0</v>
+      </c>
+      <c r="R2" s="3">
+        <v>0</v>
+      </c>
+      <c r="S2" s="3">
+        <v>0</v>
+      </c>
+      <c r="T2" s="3">
+        <v>0</v>
+      </c>
+      <c r="U2" s="3">
+        <v>0</v>
+      </c>
+      <c r="V2" s="3">
+        <v>0</v>
+      </c>
+      <c r="W2" s="3">
+        <v>0</v>
+      </c>
+      <c r="X2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y2" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z2" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B3" s="3">
+        <v>0</v>
+      </c>
+      <c r="C3" s="3">
+        <v>0</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0</v>
+      </c>
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+      <c r="F3" s="3">
+        <v>0</v>
+      </c>
+      <c r="G3" s="3">
+        <v>0</v>
+      </c>
+      <c r="H3" s="3">
+        <v>0</v>
+      </c>
+      <c r="I3" s="3">
+        <v>0</v>
+      </c>
+      <c r="J3" s="3">
+        <v>0</v>
+      </c>
+      <c r="K3" s="3">
+        <v>0</v>
+      </c>
+      <c r="L3" s="3">
+        <v>0</v>
+      </c>
+      <c r="M3" s="3">
+        <v>0</v>
+      </c>
+      <c r="N3" s="3">
+        <v>0</v>
+      </c>
+      <c r="O3" s="3">
+        <v>0</v>
+      </c>
+      <c r="P3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q3" s="3">
+        <v>0</v>
+      </c>
+      <c r="R3" s="3">
+        <v>0</v>
+      </c>
+      <c r="S3" s="3">
+        <v>0</v>
+      </c>
+      <c r="T3" s="3">
+        <v>0</v>
+      </c>
+      <c r="U3" s="3">
+        <v>0</v>
+      </c>
+      <c r="V3" s="3">
+        <v>0</v>
+      </c>
+      <c r="W3" s="3">
+        <v>0</v>
+      </c>
+      <c r="X3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y3" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z3" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="3">
+        <v>0</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0</v>
+      </c>
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+      <c r="F4" s="3">
+        <v>0</v>
+      </c>
+      <c r="G4" s="3">
+        <v>0</v>
+      </c>
+      <c r="H4" s="3">
+        <v>0</v>
+      </c>
+      <c r="I4" s="3">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0</v>
+      </c>
+      <c r="K4" s="3">
+        <v>0</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0</v>
+      </c>
+      <c r="M4" s="3">
+        <v>0</v>
+      </c>
+      <c r="N4" s="3">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0</v>
+      </c>
+      <c r="P4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0</v>
+      </c>
+      <c r="S4" s="3">
+        <v>0</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0</v>
+      </c>
+      <c r="U4" s="3">
+        <v>0</v>
+      </c>
+      <c r="V4" s="3">
+        <v>0</v>
+      </c>
+      <c r="W4" s="3">
+        <v>0</v>
+      </c>
+      <c r="X4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y4" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z4" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B5" s="3">
+        <v>0</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0</v>
+      </c>
+      <c r="G5" s="3">
+        <v>0</v>
+      </c>
+      <c r="H5" s="3">
+        <v>0</v>
+      </c>
+      <c r="I5" s="3">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0</v>
+      </c>
+      <c r="M5" s="3">
+        <v>0</v>
+      </c>
+      <c r="N5" s="3">
+        <v>0</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0</v>
+      </c>
+      <c r="P5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0</v>
+      </c>
+      <c r="S5" s="3">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0</v>
+      </c>
+      <c r="U5" s="3">
+        <v>0</v>
+      </c>
+      <c r="V5" s="3">
+        <v>0</v>
+      </c>
+      <c r="W5" s="3">
+        <v>0</v>
+      </c>
+      <c r="X5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z5" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" s="3">
+        <v>0</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0</v>
+      </c>
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0</v>
+      </c>
+      <c r="G6" s="3">
+        <v>0</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0</v>
+      </c>
+      <c r="I6" s="3">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0</v>
+      </c>
+      <c r="K6" s="3">
+        <v>0</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0</v>
+      </c>
+      <c r="M6" s="3">
+        <v>0</v>
+      </c>
+      <c r="N6" s="3">
+        <v>0</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0</v>
+      </c>
+      <c r="P6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0</v>
+      </c>
+      <c r="R6" s="3">
+        <v>0</v>
+      </c>
+      <c r="S6" s="3">
+        <v>0</v>
+      </c>
+      <c r="T6" s="3">
+        <v>0</v>
+      </c>
+      <c r="U6" s="3">
+        <v>0</v>
+      </c>
+      <c r="V6" s="3">
+        <v>0</v>
+      </c>
+      <c r="W6" s="3">
+        <v>0</v>
+      </c>
+      <c r="X6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z6" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B7" s="3">
+        <v>0</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0</v>
+      </c>
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+      <c r="F7" s="3">
+        <v>0</v>
+      </c>
+      <c r="G7" s="3">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0</v>
+      </c>
+      <c r="K7" s="3">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0</v>
+      </c>
+      <c r="M7" s="3">
+        <v>0</v>
+      </c>
+      <c r="N7" s="3">
+        <v>0</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0</v>
+      </c>
+      <c r="P7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0</v>
+      </c>
+      <c r="R7" s="3">
+        <v>0</v>
+      </c>
+      <c r="S7" s="3">
+        <v>0</v>
+      </c>
+      <c r="T7" s="3">
+        <v>0</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0</v>
+      </c>
+      <c r="V7" s="3">
+        <v>0</v>
+      </c>
+      <c r="W7" s="3">
+        <v>0</v>
+      </c>
+      <c r="X7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y7" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z7" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="3">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0</v>
+      </c>
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0</v>
+      </c>
+      <c r="G8" s="3">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3">
+        <v>0</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0</v>
+      </c>
+      <c r="K8" s="3">
+        <v>0</v>
+      </c>
+      <c r="L8" s="3">
+        <v>0</v>
+      </c>
+      <c r="M8" s="3">
+        <v>0</v>
+      </c>
+      <c r="N8" s="3">
+        <v>0</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0</v>
+      </c>
+      <c r="P8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0</v>
+      </c>
+      <c r="R8" s="3">
+        <v>0</v>
+      </c>
+      <c r="S8" s="3">
+        <v>0</v>
+      </c>
+      <c r="T8" s="3">
+        <v>0</v>
+      </c>
+      <c r="U8" s="3">
+        <v>0</v>
+      </c>
+      <c r="V8" s="3">
+        <v>0</v>
+      </c>
+      <c r="W8" s="3">
+        <v>0</v>
+      </c>
+      <c r="X8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z8" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B9" s="3">
+        <v>0</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0</v>
+      </c>
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+      <c r="F9" s="3">
+        <v>0</v>
+      </c>
+      <c r="G9" s="3">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
+        <v>0</v>
+      </c>
+      <c r="I9" s="3">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3">
+        <v>0</v>
+      </c>
+      <c r="K9" s="3">
+        <v>0</v>
+      </c>
+      <c r="L9" s="3">
+        <v>0</v>
+      </c>
+      <c r="M9" s="3">
+        <v>0</v>
+      </c>
+      <c r="N9" s="3">
+        <v>0</v>
+      </c>
+      <c r="O9" s="3">
+        <v>0</v>
+      </c>
+      <c r="P9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="3">
+        <v>0</v>
+      </c>
+      <c r="R9" s="3">
+        <v>0</v>
+      </c>
+      <c r="S9" s="3">
+        <v>0</v>
+      </c>
+      <c r="T9" s="3">
+        <v>0</v>
+      </c>
+      <c r="U9" s="3">
+        <v>0</v>
+      </c>
+      <c r="V9" s="3">
+        <v>0</v>
+      </c>
+      <c r="W9" s="3">
+        <v>0</v>
+      </c>
+      <c r="X9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="3">
+        <v>0</v>
+      </c>
+      <c r="Z9" s="3">
+        <v>0</v>
+      </c>
+      <c r="AA9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{410A1906-5A3B-4FF2-8752-8FE09D0C1871}">
   <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L20" sqref="L20"/>
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10432,18 +9906,6 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBB1FD73-3D35-0E4B-A5F5-445568AA1FC9}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -10590,10 +10052,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10973,6 +10435,36 @@
         <v>2010</v>
       </c>
     </row>
+    <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="26"/>
+      <c r="B15" s="25"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+    </row>
+    <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="12"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+    </row>
+    <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10"/>
+      <c r="B17" s="25"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="12"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="27"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10981,6 +10473,1465 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8964A39-06CA-CE4C-8B00-BD60C045421C}">
+  <dimension ref="A1:AA18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15:A17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>2025</v>
+      </c>
+      <c r="C1">
+        <v>2026</v>
+      </c>
+      <c r="D1">
+        <v>2027</v>
+      </c>
+      <c r="E1">
+        <v>2028</v>
+      </c>
+      <c r="F1">
+        <v>2029</v>
+      </c>
+      <c r="G1">
+        <v>2030</v>
+      </c>
+      <c r="H1">
+        <v>2031</v>
+      </c>
+      <c r="I1">
+        <v>2032</v>
+      </c>
+      <c r="J1">
+        <v>2033</v>
+      </c>
+      <c r="K1">
+        <v>2034</v>
+      </c>
+      <c r="L1">
+        <v>2035</v>
+      </c>
+      <c r="M1">
+        <v>2036</v>
+      </c>
+      <c r="N1">
+        <v>2037</v>
+      </c>
+      <c r="O1">
+        <v>2038</v>
+      </c>
+      <c r="P1">
+        <v>2039</v>
+      </c>
+      <c r="Q1">
+        <v>2040</v>
+      </c>
+      <c r="R1">
+        <v>2041</v>
+      </c>
+      <c r="S1">
+        <v>2042</v>
+      </c>
+      <c r="T1">
+        <v>2043</v>
+      </c>
+      <c r="U1">
+        <v>2044</v>
+      </c>
+      <c r="V1">
+        <v>2045</v>
+      </c>
+      <c r="W1">
+        <v>2046</v>
+      </c>
+      <c r="X1">
+        <v>2047</v>
+      </c>
+      <c r="Y1">
+        <v>2048</v>
+      </c>
+      <c r="Z1">
+        <v>2049</v>
+      </c>
+      <c r="AA1">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="28">
+        <v>4128000</v>
+      </c>
+      <c r="C2" s="28">
+        <v>3897427</v>
+      </c>
+      <c r="D2" s="28">
+        <v>3666853</v>
+      </c>
+      <c r="E2" s="28">
+        <v>3666853</v>
+      </c>
+      <c r="F2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="G2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="H2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="I2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="J2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="K2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="L2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="M2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="N2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="O2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="P2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="Q2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="R2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="S2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="T2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="U2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="V2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="W2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="X2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="Y2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="Z2" s="28">
+        <v>3574624</v>
+      </c>
+      <c r="AA2" s="28">
+        <v>3574624</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="28">
+        <v>4000000</v>
+      </c>
+      <c r="C3" s="28">
+        <v>3776576</v>
+      </c>
+      <c r="D3" s="28">
+        <v>3553153</v>
+      </c>
+      <c r="E3" s="28">
+        <v>3553153</v>
+      </c>
+      <c r="F3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="G3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="H3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="I3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="J3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="K3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="L3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="M3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="N3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="O3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="P3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="Q3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="R3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="S3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="T3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="U3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="V3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="W3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="X3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="Y3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="Z3" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="AA3" s="28">
+        <v>3463783</v>
+      </c>
+    </row>
+    <row r="4" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="B4" s="28">
+        <v>3804000</v>
+      </c>
+      <c r="C4" s="28">
+        <v>3591524</v>
+      </c>
+      <c r="D4" s="28">
+        <v>3379048</v>
+      </c>
+      <c r="E4" s="28">
+        <v>3379048</v>
+      </c>
+      <c r="F4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="G4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="H4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="I4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="J4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="K4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="L4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="M4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="N4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="O4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="P4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="Q4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="R4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="S4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="T4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="U4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="V4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="W4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="X4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="Y4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="Z4" s="28">
+        <v>3294058</v>
+      </c>
+      <c r="AA4" s="28">
+        <v>3294058</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="28">
+        <v>3239000</v>
+      </c>
+      <c r="C5" s="28">
+        <v>3058083</v>
+      </c>
+      <c r="D5" s="28">
+        <v>2877165</v>
+      </c>
+      <c r="E5" s="28">
+        <v>2877165</v>
+      </c>
+      <c r="F5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="G5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="H5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="I5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="J5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="K5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="L5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="M5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="N5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="O5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="P5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="Q5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="R5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="S5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="T5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="U5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="V5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="W5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="X5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="Y5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="Z5" s="28">
+        <v>2804798</v>
+      </c>
+      <c r="AA5" s="28">
+        <v>2804798</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="B6" s="28">
+        <v>1683000</v>
+      </c>
+      <c r="C6" s="28">
+        <v>1588994</v>
+      </c>
+      <c r="D6" s="28">
+        <v>1494989</v>
+      </c>
+      <c r="E6" s="28">
+        <v>1494989</v>
+      </c>
+      <c r="F6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="G6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="H6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="I6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="J6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="K6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="L6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="M6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="N6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="O6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="P6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="Q6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="R6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="S6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="T6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="U6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="V6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="W6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="X6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="Y6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="Z6" s="28">
+        <v>1457387</v>
+      </c>
+      <c r="AA6" s="28">
+        <v>1457387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" s="28">
+        <v>4722000</v>
+      </c>
+      <c r="C7" s="28">
+        <v>4458248</v>
+      </c>
+      <c r="D7" s="28">
+        <v>4194497</v>
+      </c>
+      <c r="E7" s="28">
+        <v>4194497</v>
+      </c>
+      <c r="F7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="G7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="H7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="I7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="J7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="K7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="L7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="M7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="N7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="O7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="P7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="Q7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="R7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="S7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="T7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="U7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="V7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="W7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="X7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="Y7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="Z7" s="28">
+        <v>4088996</v>
+      </c>
+      <c r="AA7" s="28">
+        <v>4088996</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="28">
+        <v>4237000</v>
+      </c>
+      <c r="C8" s="28">
+        <v>4000338</v>
+      </c>
+      <c r="D8" s="28">
+        <v>3763677</v>
+      </c>
+      <c r="E8" s="28">
+        <v>3763677</v>
+      </c>
+      <c r="F8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="G8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="H8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="I8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="J8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="K8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="L8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="M8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="N8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="O8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="P8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="Q8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="R8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="S8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="T8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="U8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="V8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="W8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="X8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="Y8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="Z8" s="28">
+        <v>3669012</v>
+      </c>
+      <c r="AA8" s="28">
+        <v>3669012</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9" s="28">
+        <v>4000000</v>
+      </c>
+      <c r="C9" s="28">
+        <v>3776576</v>
+      </c>
+      <c r="D9" s="28">
+        <v>3553153</v>
+      </c>
+      <c r="E9" s="28">
+        <v>3553153</v>
+      </c>
+      <c r="F9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="G9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="H9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="I9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="J9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="K9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="L9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="M9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="N9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="O9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="P9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="Q9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="R9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="S9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="T9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="U9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="V9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="W9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="X9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="Y9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="Z9" s="28">
+        <v>3463783</v>
+      </c>
+      <c r="AA9" s="28">
+        <v>3463783</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B10" s="28">
+        <v>3624000</v>
+      </c>
+      <c r="C10" s="28">
+        <v>3421578</v>
+      </c>
+      <c r="D10" s="28">
+        <v>3219156</v>
+      </c>
+      <c r="E10" s="28">
+        <v>3219156</v>
+      </c>
+      <c r="F10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="G10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="H10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="I10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="J10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="K10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="L10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="M10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="N10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="O10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="P10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="Q10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="R10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="S10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="T10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="U10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="V10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="W10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="X10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="Y10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="Z10" s="28">
+        <v>3138187</v>
+      </c>
+      <c r="AA10" s="28">
+        <v>3138187</v>
+      </c>
+    </row>
+    <row r="11" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="B11" s="29">
+        <v>4127000</v>
+      </c>
+      <c r="C11" s="29">
+        <v>3896483</v>
+      </c>
+      <c r="D11" s="29">
+        <v>3665965</v>
+      </c>
+      <c r="E11" s="29">
+        <v>3665965</v>
+      </c>
+      <c r="F11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="G11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="H11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="I11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="J11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="K11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="L11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="M11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="N11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="O11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="P11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="Q11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="R11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="S11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="T11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="U11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="V11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="W11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="X11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="Y11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="Z11" s="29">
+        <v>3573758</v>
+      </c>
+      <c r="AA11" s="29">
+        <v>3573758</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B12" s="29">
+        <v>4000000</v>
+      </c>
+      <c r="C12" s="29">
+        <v>3776576</v>
+      </c>
+      <c r="D12" s="29">
+        <v>3553153</v>
+      </c>
+      <c r="E12" s="29">
+        <v>3553153</v>
+      </c>
+      <c r="F12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="G12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="H12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="I12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="J12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="K12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="L12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="M12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="N12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="O12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="P12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="Q12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="R12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="S12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="T12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="U12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="V12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="W12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="X12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="Y12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="Z12" s="29">
+        <v>3463783</v>
+      </c>
+      <c r="AA12" s="29">
+        <v>3463783</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" s="29">
+        <v>1914000</v>
+      </c>
+      <c r="C13" s="29">
+        <v>1807092</v>
+      </c>
+      <c r="D13" s="29">
+        <v>1700183</v>
+      </c>
+      <c r="E13" s="29">
+        <v>1700183</v>
+      </c>
+      <c r="F13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="G13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="H13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="I13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="J13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="K13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="L13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="M13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="N13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="O13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="P13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="Q13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="R13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="S13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="T13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="U13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="V13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="W13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="X13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="Y13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="Z13" s="29">
+        <v>1657420</v>
+      </c>
+      <c r="AA13" s="29">
+        <v>1657420</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A14" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="B14" s="29">
+        <v>1280000</v>
+      </c>
+      <c r="C14" s="29">
+        <v>1208504</v>
+      </c>
+      <c r="D14" s="29">
+        <v>1137009</v>
+      </c>
+      <c r="E14" s="29">
+        <v>1137009</v>
+      </c>
+      <c r="F14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="G14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="H14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="I14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="J14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="K14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="L14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="M14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="N14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="O14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="P14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="Q14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="R14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="S14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="T14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="U14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="V14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="W14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="X14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="Y14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="Z14" s="29">
+        <v>1108411</v>
+      </c>
+      <c r="AA14" s="29">
+        <v>1108411</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="D15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="F15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="G15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="H15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="I15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="J15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="K15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="L15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="M15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="N15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="O15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="P15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="Q15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="R15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="S15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="T15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="U15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="V15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="W15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="X15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="Y15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="Z15" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="AA15" s="29">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C16" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="E16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="F16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="G16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="H16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="I16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="J16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="K16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="L16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="M16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="N16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="O16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="P16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="Q16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="R16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="S16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="T16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="U16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="V16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="W16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="X16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="Y16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="Z16" s="29">
+        <v>2500000</v>
+      </c>
+      <c r="AA16" s="29">
+        <v>2500000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27" ht="16" x14ac:dyDescent="0.2">
+      <c r="A17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="G17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="I17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="J17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="K17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="L17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="M17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="N17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="O17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="P17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="Q17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="R17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="S17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="T17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="U17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="V17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="W17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="X17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="Y17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="Z17" s="29">
+        <v>1000000</v>
+      </c>
+      <c r="AA17" s="29">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27" x14ac:dyDescent="0.2">
+      <c r="B18" s="19"/>
+      <c r="C18" s="19"/>
+      <c r="D18" s="19"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="19"/>
+      <c r="G18" s="19"/>
+      <c r="H18" s="19"/>
+      <c r="I18" s="19"/>
+      <c r="J18" s="19"/>
+      <c r="K18" s="19"/>
+      <c r="L18" s="19"/>
+      <c r="M18" s="19"/>
+      <c r="N18" s="19"/>
+      <c r="O18" s="19"/>
+      <c r="P18" s="19"/>
+      <c r="Q18" s="19"/>
+      <c r="R18" s="19"/>
+      <c r="S18" s="19"/>
+      <c r="T18" s="19"/>
+      <c r="U18" s="19"/>
+      <c r="V18" s="19"/>
+      <c r="W18" s="19"/>
+      <c r="X18" s="19"/>
+      <c r="Y18" s="19"/>
+      <c r="Z18" s="19"/>
+      <c r="AA18" s="19"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
@@ -11521,7 +12472,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -12008,7 +12959,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -12470,12 +13421,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection sqref="A1:B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -12537,190 +13488,7 @@
         <v>20</v>
       </c>
       <c r="C5">
-        <v>2051</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
-  <dimension ref="A1:AA2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <sheetData>
-    <row r="1" spans="1:27" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1">
-        <v>2025</v>
-      </c>
-      <c r="C1">
-        <v>2026</v>
-      </c>
-      <c r="D1">
-        <v>2027</v>
-      </c>
-      <c r="E1">
-        <v>2028</v>
-      </c>
-      <c r="F1">
-        <v>2029</v>
-      </c>
-      <c r="G1">
-        <v>2030</v>
-      </c>
-      <c r="H1">
-        <v>2031</v>
-      </c>
-      <c r="I1">
-        <v>2032</v>
-      </c>
-      <c r="J1">
-        <v>2033</v>
-      </c>
-      <c r="K1">
         <v>2034</v>
-      </c>
-      <c r="L1">
-        <v>2035</v>
-      </c>
-      <c r="M1">
-        <v>2036</v>
-      </c>
-      <c r="N1">
-        <v>2037</v>
-      </c>
-      <c r="O1">
-        <v>2038</v>
-      </c>
-      <c r="P1">
-        <v>2039</v>
-      </c>
-      <c r="Q1">
-        <v>2040</v>
-      </c>
-      <c r="R1">
-        <v>2041</v>
-      </c>
-      <c r="S1">
-        <v>2042</v>
-      </c>
-      <c r="T1">
-        <v>2043</v>
-      </c>
-      <c r="U1">
-        <v>2044</v>
-      </c>
-      <c r="V1">
-        <v>2045</v>
-      </c>
-      <c r="W1">
-        <v>2046</v>
-      </c>
-      <c r="X1">
-        <v>2047</v>
-      </c>
-      <c r="Y1">
-        <v>2048</v>
-      </c>
-      <c r="Z1">
-        <v>2049</v>
-      </c>
-      <c r="AA1">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B2">
-        <v>65000</v>
-      </c>
-      <c r="C2" s="4">
-        <v>71500.000000000015</v>
-      </c>
-      <c r="D2" s="4">
-        <v>78650.000000000015</v>
-      </c>
-      <c r="E2" s="4">
-        <v>86515.000000000029</v>
-      </c>
-      <c r="F2" s="4">
-        <v>95166.500000000058</v>
-      </c>
-      <c r="G2" s="4">
-        <v>104683.15000000007</v>
-      </c>
-      <c r="H2" s="4">
-        <v>115151.46500000008</v>
-      </c>
-      <c r="I2" s="4">
-        <v>126666.6115000001</v>
-      </c>
-      <c r="J2" s="4">
-        <v>139333.27265000012</v>
-      </c>
-      <c r="K2" s="4">
-        <v>153266.59991500014</v>
-      </c>
-      <c r="L2" s="4">
-        <v>168593.25990650017</v>
-      </c>
-      <c r="M2" s="4">
-        <v>185452.58589715019</v>
-      </c>
-      <c r="N2" s="4">
-        <v>203997.84448686524</v>
-      </c>
-      <c r="O2" s="4">
-        <v>224397.62893555177</v>
-      </c>
-      <c r="P2" s="4">
-        <v>246837.39182910696</v>
-      </c>
-      <c r="Q2" s="4">
-        <v>271521.13101201766</v>
-      </c>
-      <c r="R2" s="4">
-        <v>298673.24411321944</v>
-      </c>
-      <c r="S2" s="4">
-        <v>328540.56852454145</v>
-      </c>
-      <c r="T2" s="4">
-        <v>361394.62537699559</v>
-      </c>
-      <c r="U2" s="4">
-        <v>397534.08791469521</v>
-      </c>
-      <c r="V2" s="4">
-        <v>437287.49670616473</v>
-      </c>
-      <c r="W2" s="4">
-        <v>481016.2463767812</v>
-      </c>
-      <c r="X2" s="4">
-        <v>529117.87101445941</v>
-      </c>
-      <c r="Y2" s="4">
-        <v>582029.65811590536</v>
-      </c>
-      <c r="Z2" s="4">
-        <v>640232.62392749602</v>
-      </c>
-      <c r="AA2" s="4">
-        <v>704255.88632024557</v>
       </c>
     </row>
   </sheetData>

--- a/database/steel_data_0310_global.xlsx
+++ b/database/steel_data_0310_global.xlsx
@@ -8,25 +8,25 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB8A1322-204E-4449-B2C8-E0C2AAC957CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BDCEF-55C7-1548-9ED7-D20BDB6C6FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="3" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
-    <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId2"/>
-    <sheet name="fuel_introduction" sheetId="26" r:id="rId3"/>
-    <sheet name="baseline" sheetId="7" r:id="rId4"/>
-    <sheet name="capacity" sheetId="32" r:id="rId5"/>
-    <sheet name="capex" sheetId="13" r:id="rId6"/>
-    <sheet name="opex" sheetId="14" r:id="rId7"/>
-    <sheet name="renewal" sheetId="15" r:id="rId8"/>
-    <sheet name="technology" sheetId="19" r:id="rId9"/>
-    <sheet name="feedstock_max" sheetId="31" r:id="rId10"/>
-    <sheet name="fuel_max" sheetId="30" r:id="rId11"/>
-    <sheet name="carbonprice" sheetId="25" r:id="rId12"/>
-    <sheet name="emission" sheetId="23" r:id="rId13"/>
-    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId14"/>
+    <sheet name="fuel_introduction" sheetId="26" r:id="rId2"/>
+    <sheet name="baseline" sheetId="7" r:id="rId3"/>
+    <sheet name="technology_fuel_pairs" sheetId="5" r:id="rId4"/>
+    <sheet name="technology_feedstock_pairs" sheetId="6" r:id="rId5"/>
+    <sheet name="capacity" sheetId="32" r:id="rId6"/>
+    <sheet name="capex" sheetId="13" r:id="rId7"/>
+    <sheet name="opex" sheetId="14" r:id="rId8"/>
+    <sheet name="renewal" sheetId="15" r:id="rId9"/>
+    <sheet name="technology" sheetId="19" r:id="rId10"/>
+    <sheet name="feedstock_max" sheetId="31" r:id="rId11"/>
+    <sheet name="fuel_max" sheetId="30" r:id="rId12"/>
+    <sheet name="carbonprice" sheetId="25" r:id="rId13"/>
+    <sheet name="emission" sheetId="23" r:id="rId14"/>
     <sheet name="fuel_cost" sheetId="8" r:id="rId15"/>
     <sheet name="feedstock_cost" sheetId="11" r:id="rId16"/>
     <sheet name="fuel_intensity" sheetId="16" r:id="rId17"/>
@@ -58,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="93">
   <si>
     <t>system</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -361,6 +361,15 @@
   <si>
     <t xml:space="preserve">                           -</t>
   </si>
+  <si>
+    <t>Hydrogen_EAF, Electricity_EAF</t>
+  </si>
+  <si>
+    <t>0.5, 0.5</t>
+  </si>
+  <si>
+    <t>Scrap_EAF, HBI_EAF</t>
+  </si>
 </sst>
 </file>
 
@@ -518,7 +527,7 @@
     </xf>
     <xf numFmtId="41" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -583,6 +592,7 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="41" fontId="16" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma [0]" xfId="1" builtinId="6"/>
@@ -1063,6 +1073,83 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="33.5" customWidth="1"/>
+    <col min="2" max="2" width="12.83203125" customWidth="1"/>
+    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2">
+        <v>20</v>
+      </c>
+      <c r="C2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>20</v>
+      </c>
+      <c r="C3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4">
+        <v>20</v>
+      </c>
+      <c r="C4">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{243D0671-8D9D-2342-9E43-391541B6F06F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1074,12 +1161,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28B73137-998C-504F-ABE4-EEC5B2D57393}">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="D10" sqref="A1:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1087,52 +1174,15 @@
     <col min="1" max="1" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D074F1A1-9C61-4352-AF1E-453C90E48727}">
   <dimension ref="A1:AA2"/>
   <sheetViews>
@@ -1315,12 +1365,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="AA2" sqref="AA2"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AA3" sqref="AA3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1423,79 +1473,79 @@
         <v>23</v>
       </c>
       <c r="B2" s="23">
-        <v>70000000</v>
+        <v>100000000</v>
       </c>
       <c r="C2" s="23">
-        <v>68600000</v>
+        <v>100000000</v>
       </c>
       <c r="D2" s="23">
-        <v>67200000</v>
+        <v>100000000</v>
       </c>
       <c r="E2" s="23">
-        <v>65799999.999999993</v>
+        <v>100000000</v>
       </c>
       <c r="F2" s="23">
-        <v>64400000</v>
+        <v>100000000</v>
       </c>
       <c r="G2" s="23">
-        <v>63000000</v>
+        <v>100000000</v>
       </c>
       <c r="H2" s="23">
-        <v>60200000</v>
+        <v>100000000</v>
       </c>
       <c r="I2" s="23">
-        <v>57400000.000000007</v>
+        <v>100000000</v>
       </c>
       <c r="J2" s="23">
-        <v>54600000</v>
+        <v>100000000</v>
       </c>
       <c r="K2" s="23">
-        <v>51800000</v>
+        <v>100000000</v>
       </c>
       <c r="L2" s="23">
-        <v>49000000</v>
+        <v>5000000</v>
       </c>
       <c r="M2" s="23">
-        <v>46199999.999999993</v>
+        <v>5000000</v>
       </c>
       <c r="N2" s="23">
-        <v>43400000</v>
+        <v>5000000</v>
       </c>
       <c r="O2" s="23">
-        <v>40600000</v>
+        <v>5000000</v>
       </c>
       <c r="P2" s="23">
-        <v>37799999.999999993</v>
+        <v>5000000</v>
       </c>
       <c r="Q2" s="23">
-        <v>34999999.999999993</v>
+        <v>5000000</v>
       </c>
       <c r="R2" s="23">
-        <v>31499999.999999996</v>
+        <v>5000000</v>
       </c>
       <c r="S2" s="23">
-        <v>27999999.999999993</v>
+        <v>5000000</v>
       </c>
       <c r="T2" s="23">
-        <v>24499999.999999996</v>
-      </c>
-      <c r="U2" s="23">
-        <v>20999999.999999996</v>
-      </c>
-      <c r="V2" s="23">
-        <v>17499999.999999996</v>
-      </c>
-      <c r="W2" s="23">
-        <v>13999999.999999993</v>
-      </c>
-      <c r="X2" s="23">
-        <v>10499999.999999994</v>
-      </c>
-      <c r="Y2" s="23">
-        <v>6999999.9999999944</v>
-      </c>
-      <c r="Z2" s="23">
-        <v>3499999.9999999953</v>
+        <v>5000000</v>
+      </c>
+      <c r="U2" s="30">
+        <v>5000000</v>
+      </c>
+      <c r="V2" s="30">
+        <v>5000000</v>
+      </c>
+      <c r="W2" s="30">
+        <v>5000000</v>
+      </c>
+      <c r="X2" s="30">
+        <v>5000000</v>
+      </c>
+      <c r="Y2" s="30">
+        <v>5000000</v>
+      </c>
+      <c r="Z2" s="30">
+        <v>5000000</v>
       </c>
       <c r="AA2" s="23">
         <v>0</v>
@@ -1503,298 +1553,6 @@
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.2">
       <c r="G3" s="21"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
-  <dimension ref="A1:F19"/>
-  <sheetViews>
-    <sheetView zoomScale="122" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="22" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
-    <col min="6" max="8" width="26" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.9</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E2" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C3" s="13">
-        <v>7.0000000000000007E-2</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" t="s">
-        <v>47</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.04</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B5" t="s">
-        <v>79</v>
-      </c>
-      <c r="C5" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0</v>
-      </c>
-      <c r="E5" s="13">
-        <v>2030</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" s="13">
-        <v>0.05</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0</v>
-      </c>
-      <c r="E6" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B7" t="s">
-        <v>80</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
-        <v>2030</v>
-      </c>
-      <c r="F7" s="2"/>
-    </row>
-    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="13">
-        <v>1</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.75</v>
-      </c>
-      <c r="E8" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F8" s="2"/>
-    </row>
-    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B9" t="s">
-        <v>68</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.09</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F9" s="2"/>
-    </row>
-    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A10" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B10" t="s">
-        <v>69</v>
-      </c>
-      <c r="C10" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D10" s="13">
-        <v>0</v>
-      </c>
-      <c r="E10" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F10" s="2"/>
-    </row>
-    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
-      <c r="A11" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B11" t="s">
-        <v>70</v>
-      </c>
-      <c r="C11" s="13">
-        <v>0.1</v>
-      </c>
-      <c r="D11" s="13">
-        <v>0</v>
-      </c>
-      <c r="E11" s="13">
-        <v>2000</v>
-      </c>
-      <c r="F11" s="2"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A12" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B12" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D12" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="E12" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A13" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="13">
-        <v>0.6</v>
-      </c>
-      <c r="D13" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E13" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>45</v>
-      </c>
-      <c r="B14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="13">
-        <v>1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E14" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>45</v>
-      </c>
-      <c r="B15" t="s">
-        <v>74</v>
-      </c>
-      <c r="C15" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D15" s="13">
-        <v>0</v>
-      </c>
-      <c r="E15" s="13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="11"/>
-      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7662,182 +7420,138 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
-  <dimension ref="A1:E14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
+  <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView zoomScale="107" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.1640625" customWidth="1"/>
-    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.83203125" customWidth="1"/>
+    <col min="2" max="2" width="14.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="14" t="s">
-        <v>64</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="13" t="s">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C2" s="13">
-        <v>0.95</v>
-      </c>
-      <c r="D2" s="13">
-        <v>0.7</v>
-      </c>
-      <c r="E2" s="13">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2">
         <v>2000</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C3" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D3" s="13">
-        <v>0</v>
-      </c>
-      <c r="E3" s="13">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B3">
         <v>2000</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C4" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D4" s="13">
-        <v>0</v>
-      </c>
-      <c r="E4" s="13">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>79</v>
+      </c>
+      <c r="B5">
         <v>2030</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="C5" s="13">
-        <v>1</v>
-      </c>
-      <c r="D5" s="13">
-        <v>1</v>
-      </c>
-      <c r="E5" s="13">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>48</v>
+      </c>
+      <c r="B6">
         <v>2000</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A6" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C6" s="13">
-        <v>1</v>
-      </c>
-      <c r="D6" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="E6" s="13">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B7">
         <v>2030</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A7" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C7" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="D7" s="13">
-        <v>0</v>
-      </c>
-      <c r="E7" s="13">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B8">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>69</v>
+      </c>
+      <c r="B10">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>55</v>
+      </c>
+      <c r="B12">
         <v>2030</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A8" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="13">
-        <v>0.5</v>
-      </c>
-      <c r="D8" s="13">
-        <v>0.3</v>
-      </c>
-      <c r="E8" s="13">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>56</v>
+      </c>
+      <c r="B13">
         <v>2000</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
-      <c r="A9" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C9" s="13">
-        <v>0.8</v>
-      </c>
-      <c r="D9" s="13">
-        <v>0.4</v>
-      </c>
-      <c r="E9" s="13">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B12" s="2"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B13" s="2"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B14" s="2"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B14">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15">
+        <v>2000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -9910,152 +9624,11 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11A811D9-2602-4FD1-8BF7-F55E2D4AA43D}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="20.83203125" customWidth="1"/>
-    <col min="2" max="2" width="14.83203125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B2">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B3">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>47</v>
-      </c>
-      <c r="B4">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="B6">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>72</v>
-      </c>
-      <c r="B8">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>69</v>
-      </c>
-      <c r="B10">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>55</v>
-      </c>
-      <c r="B12">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>56</v>
-      </c>
-      <c r="B13">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" t="s">
-        <v>57</v>
-      </c>
-      <c r="B14">
-        <v>2000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" t="s">
-        <v>74</v>
-      </c>
-      <c r="B15">
-        <v>2030</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:H17"/>
+      <selection activeCell="F15" sqref="F15:F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10432,38 +10005,378 @@
         <v>1280000</v>
       </c>
       <c r="H14" s="27">
-        <v>2010</v>
+        <v>2025</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
-      <c r="B15" s="25"/>
-      <c r="C15" s="11"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="12"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="27"/>
+      <c r="A15" s="26" t="s">
+        <v>85</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G15" s="26">
+        <v>2500000</v>
+      </c>
+      <c r="H15" s="27">
+        <v>2026</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="11"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
+      <c r="A16" s="26" t="s">
+        <v>86</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C16" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G16" s="26">
+        <v>2500000</v>
+      </c>
+      <c r="H16" s="27">
+        <v>2027</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="16" x14ac:dyDescent="0.2">
-      <c r="A17" s="10"/>
-      <c r="B17" s="25"/>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="27"/>
+      <c r="A17" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="C17" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="D17" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="26">
+        <v>1000000</v>
+      </c>
+      <c r="H17" s="27">
+        <v>2029</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8A5865B-B011-402F-A09D-739FDD6B0E90}">
+  <dimension ref="A1:F19"/>
+  <sheetViews>
+    <sheetView zoomScale="122" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="22" customWidth="1"/>
+    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="6" max="8" width="26" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.9</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="13">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C5" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2030</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="13">
+        <v>0.05</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B7" t="s">
+        <v>80</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2030</v>
+      </c>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.75</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B9" t="s">
+        <v>68</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.09</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B10" t="s">
+        <v>69</v>
+      </c>
+      <c r="C10" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="16" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C11" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>2000</v>
+      </c>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="E12" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13">
+        <v>0.6</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E13" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>45</v>
+      </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C14" s="13">
+        <v>1</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E14" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" s="13">
+        <v>1</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="C19" s="11"/>
+      <c r="D19" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10473,11 +10386,196 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83A8B42D-00EB-470C-A0D2-7C21A6CB877B}">
+  <dimension ref="A1:E14"/>
+  <sheetViews>
+    <sheetView zoomScale="107" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.1640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C2" s="13">
+        <v>0.95</v>
+      </c>
+      <c r="D2" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="E2" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D3" s="13">
+        <v>0</v>
+      </c>
+      <c r="E3" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C4" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D4" s="13">
+        <v>0</v>
+      </c>
+      <c r="E4" s="13">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C5" s="13">
+        <v>1</v>
+      </c>
+      <c r="D5" s="13">
+        <v>1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A6" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6" s="13">
+        <v>1</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="E6" s="13">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A7" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C7" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A8" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="13">
+        <v>1</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="16" x14ac:dyDescent="0.2">
+      <c r="A9" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="13">
+        <v>0.8</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0.4</v>
+      </c>
+      <c r="E9" s="13">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" s="2"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B13" s="2"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B14" s="2"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8964A39-06CA-CE4C-8B00-BD60C045421C}">
   <dimension ref="A1:AA18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:A17"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -11931,7 +12029,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E234AF8D-964B-419F-969D-C9FD34B2C8AE}">
   <dimension ref="A1:AA31"/>
   <sheetViews>
@@ -12472,7 +12570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39EC2A4D-93DC-4E45-8627-2A75EDF5181B}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -12959,7 +13057,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A18CEE6-4CB2-4E28-86E1-E84E657A73A8}">
   <dimension ref="A1:AA5"/>
   <sheetViews>
@@ -13419,81 +13517,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED5339A0-3D98-43CE-86F7-53EF60721306}">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="33.5" customWidth="1"/>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="11.33203125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="16" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2">
-        <v>20</v>
-      </c>
-      <c r="C2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>20</v>
-      </c>
-      <c r="C3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>73</v>
-      </c>
-      <c r="B4">
-        <v>20</v>
-      </c>
-      <c r="C4">
-        <v>2030</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>45</v>
-      </c>
-      <c r="B5">
-        <v>20</v>
-      </c>
-      <c r="C5">
-        <v>2034</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-</worksheet>
 </file>
--- a/database/steel_data_0310_global.xlsx
+++ b/database/steel_data_0310_global.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jinsupark/jinsu-coding/macc_steel/database/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A28BDCEF-55C7-1548-9ED7-D20BDB6C6FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00F240B0-2B74-0B49-8D95-5FFFB9E71B50}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="2" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19860" tabRatio="775" activeTab="13" xr2:uid="{C8B88EB0-6E83-4E76-A7A7-49164EF16775}"/>
   </bookViews>
   <sheets>
     <sheet name="notes" sheetId="18" r:id="rId1"/>
@@ -1369,8 +1369,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E46CCB1-2754-42FA-B5C9-8DABA83A320C}">
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AA2" sqref="AA2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1473,79 +1473,79 @@
         <v>23</v>
       </c>
       <c r="B2" s="23">
-        <v>100000000</v>
+        <v>70000000</v>
       </c>
       <c r="C2" s="23">
-        <v>100000000</v>
+        <v>68600000</v>
       </c>
       <c r="D2" s="23">
-        <v>100000000</v>
+        <v>67200000</v>
       </c>
       <c r="E2" s="23">
-        <v>100000000</v>
+        <v>65799999.999999993</v>
       </c>
       <c r="F2" s="23">
-        <v>100000000</v>
+        <v>64400000</v>
       </c>
       <c r="G2" s="23">
-        <v>100000000</v>
+        <v>63000000</v>
       </c>
       <c r="H2" s="23">
-        <v>100000000</v>
+        <v>60200000</v>
       </c>
       <c r="I2" s="23">
-        <v>100000000</v>
+        <v>57400000.000000007</v>
       </c>
       <c r="J2" s="23">
-        <v>100000000</v>
+        <v>54600000</v>
       </c>
       <c r="K2" s="23">
-        <v>100000000</v>
+        <v>51800000</v>
       </c>
       <c r="L2" s="23">
-        <v>5000000</v>
+        <v>49000000</v>
       </c>
       <c r="M2" s="23">
-        <v>5000000</v>
+        <v>46199999.999999993</v>
       </c>
       <c r="N2" s="23">
-        <v>5000000</v>
+        <v>43400000</v>
       </c>
       <c r="O2" s="23">
-        <v>5000000</v>
+        <v>40600000</v>
       </c>
       <c r="P2" s="23">
-        <v>5000000</v>
+        <v>37799999.999999993</v>
       </c>
       <c r="Q2" s="23">
-        <v>5000000</v>
+        <v>34999999.999999993</v>
       </c>
       <c r="R2" s="23">
-        <v>5000000</v>
+        <v>31499999.999999996</v>
       </c>
       <c r="S2" s="23">
-        <v>5000000</v>
+        <v>27999999.999999993</v>
       </c>
       <c r="T2" s="23">
-        <v>5000000</v>
+        <v>24499999.999999996</v>
       </c>
       <c r="U2" s="30">
-        <v>5000000</v>
+        <v>20999999.999999996</v>
       </c>
       <c r="V2" s="30">
-        <v>5000000</v>
+        <v>17499999.999999996</v>
       </c>
       <c r="W2" s="30">
-        <v>5000000</v>
+        <v>13999999.999999993</v>
       </c>
       <c r="X2" s="30">
-        <v>5000000</v>
+        <v>10499999.999999994</v>
       </c>
       <c r="Y2" s="30">
-        <v>5000000</v>
+        <v>6999999.9999999944</v>
       </c>
       <c r="Z2" s="30">
-        <v>5000000</v>
+        <v>3499999.9999999953</v>
       </c>
       <c r="AA2" s="23">
         <v>0</v>
@@ -9627,8 +9627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B80F836-AAFA-4D20-813C-A31BE68F85E1}">
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15:F17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
